--- a/Excel файлы/Логика.xlsx
+++ b/Excel файлы/Логика.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VS projects\Traffic_Lights\Excel файлы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6851CDAA-2988-4AB5-B669-573C0D5658BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF13595E-9391-4E43-BB3A-FF41120AD409}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5745" yWindow="2085" windowWidth="18900" windowHeight="11505" tabRatio="961" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8325" yWindow="1725" windowWidth="18900" windowHeight="11505" tabRatio="961" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="логика состояний кнопок управ" sheetId="52" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="84">
   <si>
     <t>№ п/п</t>
   </si>
@@ -96,27 +96,6 @@
   </si>
   <si>
     <t>kn1010032</t>
-  </si>
-  <si>
-    <t>elem1</t>
-  </si>
-  <si>
-    <t>elem2</t>
-  </si>
-  <si>
-    <t>elem3</t>
-  </si>
-  <si>
-    <t>elem4</t>
-  </si>
-  <si>
-    <t>elem5</t>
-  </si>
-  <si>
-    <t>elem6</t>
-  </si>
-  <si>
-    <t>elem7</t>
   </si>
   <si>
     <t xml:space="preserve">Код элемента
@@ -132,24 +111,6 @@
     <t>кнопка включения при включенном красном свете</t>
   </si>
   <si>
-    <t>лН1(вкл)</t>
-  </si>
-  <si>
-    <t>лН1(выкл)</t>
-  </si>
-  <si>
-    <t>лН2(вкл)</t>
-  </si>
-  <si>
-    <t>лН2(выкл)</t>
-  </si>
-  <si>
-    <t>лН3(выкл)</t>
-  </si>
-  <si>
-    <t>лН3(вкл)</t>
-  </si>
-  <si>
     <t>кнопка включения желтого света</t>
   </si>
   <si>
@@ -282,30 +243,9 @@
     <t>Место хранения состояния элементов</t>
   </si>
   <si>
-    <t>КН1 красный</t>
-  </si>
-  <si>
-    <t>КН2 желтый</t>
-  </si>
-  <si>
-    <t>КН3 зеленый</t>
-  </si>
-  <si>
-    <t>лН1 красный</t>
-  </si>
-  <si>
-    <t>лН2 желтый</t>
-  </si>
-  <si>
-    <t>лН3 зеленый</t>
-  </si>
-  <si>
     <t>Логика состояний элементов</t>
   </si>
   <si>
-    <t>И(H6;НЕ(I6);НЕ(J6))</t>
-  </si>
-  <si>
     <t>dataTable2.getByItem("elem1")&amp;&amp;!dataTable2.getByItem("elem2")&amp;&amp;!dataTable2.getByItem("elem3")</t>
   </si>
   <si>
@@ -324,12 +264,6 @@
     <t>dataTable2.getByItem("elem3")</t>
   </si>
   <si>
-    <t>И(H7;НЕ(I7);НЕ(J7))</t>
-  </si>
-  <si>
-    <t>И(H8;НЕ(I8);НЕ(J8))</t>
-  </si>
-  <si>
     <t>!dataTable1.getByItem("elem4")</t>
   </si>
   <si>
@@ -340,6 +274,15 @@
   </si>
   <si>
     <t>Click</t>
+  </si>
+  <si>
+    <t>лН1</t>
+  </si>
+  <si>
+    <t>лН2</t>
+  </si>
+  <si>
+    <t>лН3</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +963,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1036,7 +979,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -1056,22 +999,22 @@
         <v>3</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D2" s="33" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="G2" s="37" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I2" s="38"/>
       <c r="J2" s="38"/>
@@ -1085,13 +1028,13 @@
       <c r="F3" s="35"/>
       <c r="G3" s="37"/>
       <c r="H3" s="11" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1105,13 +1048,13 @@
         <v>9</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="M4" s="19"/>
     </row>
@@ -1158,10 +1101,10 @@
         <v>19</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F6" s="30"/>
       <c r="G6" s="26"/>
@@ -1186,10 +1129,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F7" s="30"/>
       <c r="G7" s="26"/>
@@ -1217,7 +1160,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" s="26"/>
@@ -1255,8 +1198,8 @@
   </sheetPr>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1264,7 +1207,7 @@
     <col min="1" max="1" width="4.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="8" customWidth="1"/>
     <col min="5" max="5" width="4" style="3" customWidth="1"/>
     <col min="6" max="6" width="85.7109375" style="4" customWidth="1"/>
     <col min="7" max="7" width="2.7109375" style="4" customWidth="1"/>
@@ -1274,7 +1217,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -1291,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E2" s="37" t="s">
         <v>1</v>
@@ -1309,7 +1252,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I2" s="38"/>
       <c r="J2" s="38"/>
@@ -1323,13 +1266,13 @@
       <c r="F3" s="37"/>
       <c r="G3" s="37"/>
       <c r="H3" s="11" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1343,13 +1286,13 @@
         <v>9</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="M4" s="19"/>
     </row>
@@ -1388,20 +1331,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E6" s="14">
         <f>IF((AND(H6,(NOT(I6)),(NOT(J6)))=TRUE),1,0)</f>
         <v>1</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="G6" s="41"/>
       <c r="H6" s="25">
@@ -1413,9 +1356,7 @@
       <c r="J6" s="25">
         <v>0</v>
       </c>
-      <c r="L6" s="42" t="s">
-        <v>90</v>
-      </c>
+      <c r="L6" s="42"/>
       <c r="M6" s="42"/>
       <c r="N6" s="42"/>
       <c r="O6" s="42"/>
@@ -1426,17 +1367,17 @@
       </c>
       <c r="B7" s="39"/>
       <c r="C7" s="10" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E7" s="14">
         <f>IF((AND(I7,(NOT(H7)),(NOT(J7)))=TRUE),1,0)</f>
         <v>1</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="G7" s="41"/>
       <c r="H7" s="16">
@@ -1448,9 +1389,7 @@
       <c r="J7" s="16">
         <v>0</v>
       </c>
-      <c r="L7" s="42" t="s">
-        <v>97</v>
-      </c>
+      <c r="L7" s="42"/>
       <c r="M7" s="42"/>
       <c r="N7" s="42"/>
       <c r="O7" s="42"/>
@@ -1461,17 +1400,17 @@
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="10" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E8" s="14">
         <f>IF((AND(J8,(NOT(H8)),(NOT(I8)))=TRUE),1,0)</f>
         <v>1</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="G8" s="41"/>
       <c r="H8" s="25">
@@ -1483,9 +1422,7 @@
       <c r="J8" s="25">
         <v>1</v>
       </c>
-      <c r="L8" s="42" t="s">
-        <v>98</v>
-      </c>
+      <c r="L8" s="42"/>
       <c r="M8" s="42"/>
       <c r="N8" s="42"/>
       <c r="O8" s="42"/>
@@ -1496,17 +1433,17 @@
       </c>
       <c r="B9" s="39"/>
       <c r="C9" s="10" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E9" s="12">
         <f>IF(((NOT(H9))=TRUE),0,1)</f>
         <v>1</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="G9" s="41"/>
       <c r="H9" s="16">
@@ -1521,17 +1458,17 @@
       </c>
       <c r="B10" s="39"/>
       <c r="C10" s="10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E10" s="21">
         <f>IF(((NOT(I10))=TRUE),0,1)</f>
         <v>1</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="G10" s="41"/>
       <c r="H10" s="23"/>
@@ -1546,17 +1483,17 @@
       </c>
       <c r="B11" s="39"/>
       <c r="C11" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E11" s="24">
         <f>IF(((NOT(J11))=TRUE),0,1)</f>
         <v>1</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="G11" s="41"/>
       <c r="H11" s="16"/>
@@ -1574,7 +1511,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E12" s="21">
         <v>1</v>
@@ -1623,8 +1560,8 @@
   </sheetPr>
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1646,7 +1583,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -1671,13 +1608,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D2" s="33" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>1</v>
@@ -1689,7 +1626,7 @@
         <v>10</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J2" s="38"/>
       <c r="K2" s="38"/>
@@ -1708,22 +1645,22 @@
       <c r="G3" s="37"/>
       <c r="H3" s="37"/>
       <c r="I3" s="11" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="O3" s="11" t="s">
         <v>8</v>
@@ -1741,25 +1678,25 @@
         <v>9</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="R4" s="19"/>
     </row>
@@ -1819,17 +1756,17 @@
         <v>11</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F6" s="21">
         <f>IF(((NOT(I6))=TRUE),0,1)</f>
         <v>1</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="H6" s="41"/>
       <c r="I6" s="18">
@@ -1853,17 +1790,17 @@
         <v>19</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F7" s="21">
         <f>IF(((NOT(I7))=TRUE),0,1)</f>
         <v>0</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="H7" s="41"/>
       <c r="I7" s="18">
@@ -1887,17 +1824,17 @@
         <v>12</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="F8" s="21">
         <f>IF(((NOT(J8))=TRUE),0,1)</f>
         <v>1</v>
       </c>
       <c r="G8" s="45" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="H8" s="46"/>
       <c r="I8" s="18"/>
@@ -1921,17 +1858,17 @@
         <v>20</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="F9" s="21">
         <f>IF(((NOT(J9))=TRUE),0,1)</f>
         <v>0</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="H9" s="46"/>
       <c r="I9" s="18"/>
@@ -1955,17 +1892,17 @@
         <v>13</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F10" s="21">
         <f>IF(((NOT(K10))=TRUE),0,1)</f>
         <v>1</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="H10" s="41"/>
       <c r="I10" s="18"/>
@@ -1989,17 +1926,17 @@
         <v>21</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F11" s="21">
         <f>IF(((NOT(K11))=TRUE),0,1)</f>
         <v>0</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="H11" s="41"/>
       <c r="I11" s="18"/>
@@ -2017,23 +1954,23 @@
         <v>7</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F12" s="21">
         <f>IF(((NOT(L12))=TRUE),0,1)</f>
         <v>1</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="H12" s="46"/>
       <c r="I12" s="18"/>
@@ -2051,23 +1988,23 @@
         <v>8</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>47</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F13" s="21">
         <f>IF(((NOT(L13))=TRUE),0,1)</f>
         <v>0</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="18"/>
@@ -2085,23 +2022,23 @@
         <v>9</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F14" s="21">
         <f>IF(((NOT(M14))=TRUE),0,1)</f>
         <v>1</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="H14" s="41"/>
       <c r="I14" s="18"/>
@@ -2119,23 +2056,23 @@
         <v>10</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F15" s="21">
         <f>IF(((NOT(M15))=TRUE),0,1)</f>
         <v>0</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="H15" s="41"/>
       <c r="I15" s="18"/>
@@ -2153,23 +2090,23 @@
         <v>11</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F16" s="21">
         <f>IF(((NOT(N16))=TRUE),0,1)</f>
         <v>1</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H16" s="41"/>
       <c r="I16" s="18"/>
@@ -2187,23 +2124,23 @@
         <v>12</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F17" s="21">
         <f>IF(((NOT(N17))=TRUE),0,1)</f>
         <v>0</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="H17" s="41"/>
       <c r="I17" s="18"/>
@@ -2230,7 +2167,7 @@
         <v>8</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F18" s="21">
         <v>1</v>

--- a/Excel файлы/Логика.xlsx
+++ b/Excel файлы/Логика.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VS projects\Traffic_Lights\Excel файлы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF13595E-9391-4E43-BB3A-FF41120AD409}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8047C1B7-F4C4-4769-BF72-4BEEEF1582F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8325" yWindow="1725" windowWidth="18900" windowHeight="11505" tabRatio="961" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5805" yWindow="1545" windowWidth="18900" windowHeight="11505" tabRatio="961" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="логика состояний кнопок управ" sheetId="52" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="78">
   <si>
     <t>№ п/п</t>
   </si>
@@ -244,24 +244,6 @@
   </si>
   <si>
     <t>Логика состояний элементов</t>
-  </si>
-  <si>
-    <t>dataTable2.getByItem("elem1")&amp;&amp;!dataTable2.getByItem("elem2")&amp;&amp;!dataTable2.getByItem("elem3")</t>
-  </si>
-  <si>
-    <t>dataTable2.getByItem("elem2")&amp;&amp;!dataTable2.getByItem("elem1")&amp;&amp;!dataTable2.getByItem("elem3")</t>
-  </si>
-  <si>
-    <t>dataTable2.getByItem("elem3")&amp;&amp;!dataTable2.getByItem("elem1")&amp;&amp;!dataTable2.getByItem("elem2")</t>
-  </si>
-  <si>
-    <t>dataTable2.getByItem("elem1")</t>
-  </si>
-  <si>
-    <t>dataTable2.getByItem("elem2")</t>
-  </si>
-  <si>
-    <t>dataTable2.getByItem("elem3")</t>
   </si>
   <si>
     <t>!dataTable1.getByItem("elem4")</t>
@@ -592,22 +574,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1008,7 +990,7 @@
         <v>45</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G2" s="37" t="s">
         <v>10</v>
@@ -1199,7 +1181,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1312,10 +1294,10 @@
       <c r="E5" s="14">
         <v>5</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="40">
         <v>6</v>
       </c>
-      <c r="G5" s="44"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="14">
         <v>7</v>
       </c>
@@ -1330,7 +1312,7 @@
       <c r="A6" s="20">
         <v>1</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="43" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -1343,10 +1325,8 @@
         <f>IF((AND(H6,(NOT(I6)),(NOT(J6)))=TRUE),1,0)</f>
         <v>1</v>
       </c>
-      <c r="F6" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
       <c r="H6" s="25">
         <v>1</v>
       </c>
@@ -1356,16 +1336,16 @@
       <c r="J6" s="25">
         <v>0</v>
       </c>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>2</v>
       </c>
-      <c r="B7" s="39"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
@@ -1376,10 +1356,8 @@
         <f>IF((AND(I7,(NOT(H7)),(NOT(J7)))=TRUE),1,0)</f>
         <v>1</v>
       </c>
-      <c r="F7" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="41"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
       <c r="H7" s="16">
         <v>0</v>
       </c>
@@ -1389,16 +1367,16 @@
       <c r="J7" s="16">
         <v>0</v>
       </c>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>3</v>
       </c>
-      <c r="B8" s="39"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="10" t="s">
         <v>17</v>
       </c>
@@ -1409,10 +1387,8 @@
         <f>IF((AND(J8,(NOT(H8)),(NOT(I8)))=TRUE),1,0)</f>
         <v>1</v>
       </c>
-      <c r="F8" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="41"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
       <c r="H8" s="25">
         <v>0</v>
       </c>
@@ -1422,18 +1398,18 @@
       <c r="J8" s="25">
         <v>1</v>
       </c>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
     </row>
     <row r="9" spans="1:15" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>4</v>
       </c>
-      <c r="B9" s="39"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>49</v>
@@ -1442,10 +1418,8 @@
         <f>IF(((NOT(H9))=TRUE),0,1)</f>
         <v>1</v>
       </c>
-      <c r="F9" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="41"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
       <c r="H9" s="16">
         <v>1</v>
       </c>
@@ -1456,9 +1430,9 @@
       <c r="A10" s="16">
         <v>5</v>
       </c>
-      <c r="B10" s="39"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>50</v>
@@ -1467,10 +1441,8 @@
         <f>IF(((NOT(I10))=TRUE),0,1)</f>
         <v>1</v>
       </c>
-      <c r="F10" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="41"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
       <c r="H10" s="23"/>
       <c r="I10" s="25">
         <v>1</v>
@@ -1481,9 +1453,9 @@
       <c r="A11" s="16">
         <v>6</v>
       </c>
-      <c r="B11" s="39"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>51</v>
@@ -1492,10 +1464,8 @@
         <f>IF(((NOT(J11))=TRUE),0,1)</f>
         <v>1</v>
       </c>
-      <c r="F11" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="41"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16">
@@ -1506,7 +1476,7 @@
       <c r="A12" s="16">
         <v>7</v>
       </c>
-      <c r="B12" s="40"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="10" t="s">
         <v>8</v>
       </c>
@@ -1516,28 +1486,14 @@
       <c r="E12" s="21">
         <v>1</v>
       </c>
-      <c r="F12" s="41">
-        <v>1</v>
-      </c>
-      <c r="G12" s="41"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B6:B12"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
@@ -1547,6 +1503,18 @@
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -1765,10 +1733,10 @@
         <f>IF(((NOT(I6))=TRUE),0,1)</f>
         <v>1</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="41"/>
+      <c r="H6" s="42"/>
       <c r="I6" s="18">
         <v>1</v>
       </c>
@@ -1799,10 +1767,10 @@
         <f>IF(((NOT(I7))=TRUE),0,1)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="41"/>
+      <c r="H7" s="42"/>
       <c r="I7" s="18">
         <v>0</v>
       </c>
@@ -1901,10 +1869,10 @@
         <f>IF(((NOT(K10))=TRUE),0,1)</f>
         <v>1</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="G10" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="41"/>
+      <c r="H10" s="42"/>
       <c r="I10" s="18"/>
       <c r="J10" s="16"/>
       <c r="K10" s="16">
@@ -1935,10 +1903,10 @@
         <f>IF(((NOT(K11))=TRUE),0,1)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="41"/>
+      <c r="H11" s="42"/>
       <c r="I11" s="18"/>
       <c r="J11" s="16"/>
       <c r="K11" s="16">
@@ -1954,7 +1922,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>33</v>
@@ -1988,7 +1956,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>34</v>
@@ -2004,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="18"/>
@@ -2022,7 +1990,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>35</v>
@@ -2037,10 +2005,10 @@
         <f>IF(((NOT(M14))=TRUE),0,1)</f>
         <v>1</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="G14" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="41"/>
+      <c r="H14" s="42"/>
       <c r="I14" s="18"/>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
@@ -2056,7 +2024,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>36</v>
@@ -2071,10 +2039,10 @@
         <f>IF(((NOT(M15))=TRUE),0,1)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="H15" s="41"/>
+      <c r="G15" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="42"/>
       <c r="I15" s="18"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
@@ -2090,7 +2058,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>37</v>
@@ -2105,10 +2073,10 @@
         <f>IF(((NOT(N16))=TRUE),0,1)</f>
         <v>1</v>
       </c>
-      <c r="G16" s="41" t="s">
+      <c r="G16" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="41"/>
+      <c r="H16" s="42"/>
       <c r="I16" s="18"/>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
@@ -2124,7 +2092,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>38</v>
@@ -2139,10 +2107,10 @@
         <f>IF(((NOT(N17))=TRUE),0,1)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="H17" s="41"/>
+      <c r="G17" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="42"/>
       <c r="I17" s="18"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
@@ -2172,10 +2140,10 @@
       <c r="F18" s="21">
         <v>1</v>
       </c>
-      <c r="G18" s="41">
-        <v>1</v>
-      </c>
-      <c r="H18" s="41"/>
+      <c r="G18" s="42">
+        <v>1</v>
+      </c>
+      <c r="H18" s="42"/>
       <c r="I18" s="18"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
@@ -2188,6 +2156,20 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
@@ -2198,20 +2180,6 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Excel файлы/Логика.xlsx
+++ b/Excel файлы/Логика.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VS projects\Traffic_Lights\Excel файлы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8047C1B7-F4C4-4769-BF72-4BEEEF1582F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815C6A68-5F35-49F2-9FA3-98CCA1720C3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5805" yWindow="1545" windowWidth="18900" windowHeight="11505" tabRatio="961" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="961" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="логика состояний кнопок управ" sheetId="52" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="66">
   <si>
     <t>№ п/п</t>
   </si>
@@ -201,33 +201,6 @@
     <t>elem3 table2</t>
   </si>
   <si>
-    <t>dataTable1.getByItem("elem3")</t>
-  </si>
-  <si>
-    <t>dataTable1.getByItem("elem1")</t>
-  </si>
-  <si>
-    <t>!dataTable1.getByItem("elem1")</t>
-  </si>
-  <si>
-    <t>dataTable1.getByItem("elem2")</t>
-  </si>
-  <si>
-    <t>!dataTable1.getByItem("elem2")</t>
-  </si>
-  <si>
-    <t>dataTable1.getByItem("elem4")</t>
-  </si>
-  <si>
-    <t>dataTable1.getByItem("elem5")</t>
-  </si>
-  <si>
-    <t>dataTable1.getByItem("elem6")</t>
-  </si>
-  <si>
-    <t>!dataTable1.getByItem("elem3")</t>
-  </si>
-  <si>
     <t>Логика состояний кнопок управления</t>
   </si>
   <si>
@@ -244,15 +217,6 @@
   </si>
   <si>
     <t>Логика состояний элементов</t>
-  </si>
-  <si>
-    <t>!dataTable1.getByItem("elem4")</t>
-  </si>
-  <si>
-    <t>!dataTable1.getByItem("elem5")</t>
-  </si>
-  <si>
-    <t>!dataTable1.getByItem("elem6")</t>
   </si>
   <si>
     <t>Click</t>
@@ -574,6 +538,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -581,15 +554,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -961,7 +925,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -990,7 +954,7 @@
         <v>45</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G2" s="37" t="s">
         <v>10</v>
@@ -1180,7 +1144,7 @@
   </sheetPr>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
@@ -1199,7 +1163,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -1216,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E2" s="37" t="s">
         <v>1</v>
@@ -1294,10 +1258,10 @@
       <c r="E5" s="14">
         <v>5</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="43">
         <v>6</v>
       </c>
-      <c r="G5" s="41"/>
+      <c r="G5" s="44"/>
       <c r="H5" s="14">
         <v>7</v>
       </c>
@@ -1312,7 +1276,7 @@
       <c r="A6" s="20">
         <v>1</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="39" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -1325,8 +1289,8 @@
         <f>IF((AND(H6,(NOT(I6)),(NOT(J6)))=TRUE),1,0)</f>
         <v>1</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
       <c r="H6" s="25">
         <v>1</v>
       </c>
@@ -1336,16 +1300,16 @@
       <c r="J6" s="25">
         <v>0</v>
       </c>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
     </row>
     <row r="7" spans="1:15" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>2</v>
       </c>
-      <c r="B7" s="43"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
@@ -1356,8 +1320,8 @@
         <f>IF((AND(I7,(NOT(H7)),(NOT(J7)))=TRUE),1,0)</f>
         <v>1</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
       <c r="H7" s="16">
         <v>0</v>
       </c>
@@ -1367,16 +1331,16 @@
       <c r="J7" s="16">
         <v>0</v>
       </c>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
     </row>
     <row r="8" spans="1:15" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>3</v>
       </c>
-      <c r="B8" s="43"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="10" t="s">
         <v>17</v>
       </c>
@@ -1387,8 +1351,8 @@
         <f>IF((AND(J8,(NOT(H8)),(NOT(I8)))=TRUE),1,0)</f>
         <v>1</v>
       </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="25">
         <v>0</v>
       </c>
@@ -1398,18 +1362,18 @@
       <c r="J8" s="25">
         <v>1</v>
       </c>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
     </row>
     <row r="9" spans="1:15" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>4</v>
       </c>
-      <c r="B9" s="43"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>49</v>
@@ -1418,8 +1382,8 @@
         <f>IF(((NOT(H9))=TRUE),0,1)</f>
         <v>1</v>
       </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="16">
         <v>1</v>
       </c>
@@ -1430,9 +1394,9 @@
       <c r="A10" s="16">
         <v>5</v>
       </c>
-      <c r="B10" s="43"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="10" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>50</v>
@@ -1441,8 +1405,8 @@
         <f>IF(((NOT(I10))=TRUE),0,1)</f>
         <v>1</v>
       </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
       <c r="H10" s="23"/>
       <c r="I10" s="25">
         <v>1</v>
@@ -1453,9 +1417,9 @@
       <c r="A11" s="16">
         <v>6</v>
       </c>
-      <c r="B11" s="43"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="10" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>51</v>
@@ -1464,8 +1428,8 @@
         <f>IF(((NOT(J11))=TRUE),0,1)</f>
         <v>1</v>
       </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16">
@@ -1476,7 +1440,7 @@
       <c r="A12" s="16">
         <v>7</v>
       </c>
-      <c r="B12" s="44"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="10" t="s">
         <v>8</v>
       </c>
@@ -1486,14 +1450,26 @@
       <c r="E12" s="21">
         <v>1</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
@@ -1503,18 +1479,6 @@
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B6:B12"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -1528,8 +1492,8 @@
   </sheetPr>
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1551,7 +1515,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -1733,10 +1697,8 @@
         <f>IF(((NOT(I6))=TRUE),0,1)</f>
         <v>1</v>
       </c>
-      <c r="G6" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="42"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
       <c r="I6" s="18">
         <v>1</v>
       </c>
@@ -1767,10 +1729,8 @@
         <f>IF(((NOT(I7))=TRUE),0,1)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="42"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
       <c r="I7" s="18">
         <v>0</v>
       </c>
@@ -1801,9 +1761,7 @@
         <f>IF(((NOT(J8))=TRUE),0,1)</f>
         <v>1</v>
       </c>
-      <c r="G8" s="45" t="s">
-        <v>59</v>
-      </c>
+      <c r="G8" s="45"/>
       <c r="H8" s="46"/>
       <c r="I8" s="18"/>
       <c r="J8" s="16">
@@ -1835,9 +1793,7 @@
         <f>IF(((NOT(J9))=TRUE),0,1)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="45" t="s">
-        <v>60</v>
-      </c>
+      <c r="G9" s="45"/>
       <c r="H9" s="46"/>
       <c r="I9" s="18"/>
       <c r="J9" s="16">
@@ -1869,10 +1825,8 @@
         <f>IF(((NOT(K10))=TRUE),0,1)</f>
         <v>1</v>
       </c>
-      <c r="G10" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="42"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
       <c r="I10" s="18"/>
       <c r="J10" s="16"/>
       <c r="K10" s="16">
@@ -1903,10 +1857,8 @@
         <f>IF(((NOT(K11))=TRUE),0,1)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="42"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
       <c r="I11" s="18"/>
       <c r="J11" s="16"/>
       <c r="K11" s="16">
@@ -1922,7 +1874,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>33</v>
@@ -1937,9 +1889,7 @@
         <f>IF(((NOT(L12))=TRUE),0,1)</f>
         <v>1</v>
       </c>
-      <c r="G12" s="45" t="s">
-        <v>61</v>
-      </c>
+      <c r="G12" s="45"/>
       <c r="H12" s="46"/>
       <c r="I12" s="18"/>
       <c r="J12" s="16"/>
@@ -1956,7 +1906,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>34</v>
@@ -1971,9 +1921,7 @@
         <f>IF(((NOT(L13))=TRUE),0,1)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="45" t="s">
-        <v>71</v>
-      </c>
+      <c r="G13" s="45"/>
       <c r="H13" s="46"/>
       <c r="I13" s="18"/>
       <c r="J13" s="16"/>
@@ -1990,7 +1938,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>35</v>
@@ -2005,10 +1953,8 @@
         <f>IF(((NOT(M14))=TRUE),0,1)</f>
         <v>1</v>
       </c>
-      <c r="G14" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="42"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
       <c r="I14" s="18"/>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
@@ -2024,7 +1970,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>36</v>
@@ -2039,10 +1985,8 @@
         <f>IF(((NOT(M15))=TRUE),0,1)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" s="42"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
       <c r="I15" s="18"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
@@ -2058,7 +2002,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>37</v>
@@ -2073,10 +2017,8 @@
         <f>IF(((NOT(N16))=TRUE),0,1)</f>
         <v>1</v>
       </c>
-      <c r="G16" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="42"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
       <c r="I16" s="18"/>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
@@ -2092,7 +2034,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>38</v>
@@ -2107,10 +2049,8 @@
         <f>IF(((NOT(N17))=TRUE),0,1)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" s="42"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
       <c r="I17" s="18"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
@@ -2140,10 +2080,8 @@
       <c r="F18" s="21">
         <v>1</v>
       </c>
-      <c r="G18" s="42">
-        <v>1</v>
-      </c>
-      <c r="H18" s="42"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
       <c r="I18" s="18"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
@@ -2156,20 +2094,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
@@ -2180,6 +2104,20 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Excel файлы/Логика.xlsx
+++ b/Excel файлы/Логика.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VS projects\Traffic_Lights\Excel файлы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E878986-8EFD-4DF8-A4B3-1ED4FE23C652}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0560B468-3A29-49D3-9EC2-21936AF00848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="789" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="логика связей ячеек tab1 и tab2" sheetId="53" r:id="rId3"/>
     <sheet name="логика состояний элементов" sheetId="54" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="90">
   <si>
     <t>№ п/п</t>
   </si>
@@ -289,9 +289,6 @@
     <t xml:space="preserve"> Лн3 вкл.(зеленый)</t>
   </si>
   <si>
-    <t>101001</t>
-  </si>
-  <si>
     <t>ЛН1</t>
   </si>
   <si>
@@ -299,6 +296,12 @@
   </si>
   <si>
     <t>ЛН3</t>
+  </si>
+  <si>
+    <t>sc1010001</t>
+  </si>
+  <si>
+    <t>основа</t>
   </si>
 </sst>
 </file>
@@ -1962,7 +1965,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>33</v>
@@ -1985,7 +1988,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>34</v>
@@ -2008,7 +2011,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>48</v>
@@ -3920,7 +3923,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:H10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4394,7 +4397,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>44</v>
@@ -4427,7 +4430,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>45</v>
@@ -4460,7 +4463,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>46</v>
@@ -4493,7 +4496,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>47</v>
@@ -4526,7 +4529,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>26</v>
@@ -4559,7 +4562,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>27</v>
@@ -4592,10 +4595,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D20" s="33" t="s">
         <v>80</v>

--- a/Excel файлы/Логика.xlsx
+++ b/Excel файлы/Логика.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VS projects\Traffic_Lights\Excel файлы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0560B468-3A29-49D3-9EC2-21936AF00848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC4BEBF-EFB7-45FC-9F07-2DB6013F895A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="789" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="789" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Логика разреш.включ.кнопок" sheetId="55" r:id="rId1"/>
@@ -31,15 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="106">
   <si>
     <t>№ п/п</t>
   </si>
   <si>
     <t>Логическая формула состояний</t>
-  </si>
-  <si>
-    <t>Логическая формула состояний для javascript</t>
   </si>
   <si>
     <t>Обозначение элементов на схеме</t>
@@ -118,9 +115,6 @@
     <t>el1010042</t>
   </si>
   <si>
-    <t>Ячейка в БД</t>
-  </si>
-  <si>
     <t>elem1 table1</t>
   </si>
   <si>
@@ -133,6 +127,9 @@
     <t>elem4 table1</t>
   </si>
   <si>
+    <t>elem5 table1</t>
+  </si>
+  <si>
     <t>elem6 table1</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>elem3 table2</t>
   </si>
   <si>
-    <t>Логика связей состояний ячеек table1 и table2 базы данных</t>
-  </si>
-  <si>
     <t>Логика состояний элементов</t>
   </si>
   <si>
@@ -166,6 +160,12 @@
     <t>elem4 table2</t>
   </si>
   <si>
+    <t>el1010011</t>
+  </si>
+  <si>
+    <t>el1010012</t>
+  </si>
+  <si>
     <t>el1010021</t>
   </si>
   <si>
@@ -217,24 +217,6 @@
     <t>кнопка вкл.зеленой лампы-выкл</t>
   </si>
   <si>
-    <t>Лн включена(красный)-активна</t>
-  </si>
-  <si>
-    <t>2 ч. Лн включена (черный)-не активна</t>
-  </si>
-  <si>
-    <t>Лн включена(зеленый)-активна</t>
-  </si>
-  <si>
-    <t>Лн включена(желтый)-активна</t>
-  </si>
-  <si>
-    <t>3 ч. Лн включена(желтый)-не активна</t>
-  </si>
-  <si>
-    <t>4 ч. Лн включена(зеленый) не активна</t>
-  </si>
-  <si>
     <t>Логика разреш.включ.кнопок</t>
   </si>
   <si>
@@ -256,9 +238,6 @@
     <t>КН2    вкл.желтой лампы</t>
   </si>
   <si>
-    <t>логика включен. кнопок управ</t>
-  </si>
-  <si>
     <t>Название элемента</t>
   </si>
   <si>
@@ -289,6 +268,72 @@
     <t xml:space="preserve"> Лн3 вкл.(зеленый)</t>
   </si>
   <si>
+    <t>Лн выключены (черный)-вкл</t>
+  </si>
+  <si>
+    <t>1 ч. Лн выключены (черный)- выкл</t>
+  </si>
+  <si>
+    <t>Лн включена(красный)-вкл</t>
+  </si>
+  <si>
+    <t>2 ч. Лн включена (черный)-выкл</t>
+  </si>
+  <si>
+    <t>Лн включена(желтый)-вкл</t>
+  </si>
+  <si>
+    <t>3 ч. Лн включена(желтый)-выкл</t>
+  </si>
+  <si>
+    <t>Лн включена(зеленый)-вкл</t>
+  </si>
+  <si>
+    <t>4 ч. Лн включена(зеленый)-выкл</t>
+  </si>
+  <si>
+    <t>Логика включений кнопок управления</t>
+  </si>
+  <si>
+    <t>Логика связей ячеек table1 и table2 базы данных</t>
+  </si>
+  <si>
+    <t>И(G6)</t>
+  </si>
+  <si>
+    <t>И(H7;(НЕ(I7));(НЕ(J7)))</t>
+  </si>
+  <si>
+    <t>И(I8;(НЕ(H8));(НЕ(J8)))</t>
+  </si>
+  <si>
+    <t>И(G10)</t>
+  </si>
+  <si>
+    <t>И(J9;(НЕ(H9));(НЕ(I9)))</t>
+  </si>
+  <si>
+    <t>И(H11)</t>
+  </si>
+  <si>
+    <t>И(I12)</t>
+  </si>
+  <si>
+    <t>И(J13)</t>
+  </si>
+  <si>
+    <t>И(J7;(НЕ(K7)))</t>
+  </si>
+  <si>
+    <t>И(J8;(НЕ(L8)))</t>
+  </si>
+  <si>
+    <t>И(J9;(НЕ(M9)))</t>
+  </si>
+  <si>
+    <t>И(P12)</t>
+  </si>
+  <si>
     <t>ЛН1</t>
   </si>
   <si>
@@ -296,6 +341,9 @@
   </si>
   <si>
     <t>ЛН3</t>
+  </si>
+  <si>
+    <t>ЛН</t>
   </si>
   <si>
     <t>sc1010001</t>
@@ -528,17 +576,17 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -584,58 +632,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -648,9 +687,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -667,95 +703,134 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -764,12 +839,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1113,107 +1182,114 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="8" customWidth="1"/>
     <col min="4" max="4" width="31" style="8" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" style="4" customWidth="1"/>
-    <col min="7" max="10" width="3" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="5.42578125" style="1"/>
+    <col min="6" max="6" width="8.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" style="4" customWidth="1"/>
+    <col min="8" max="11" width="3" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="5.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+    </row>
+    <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="E2" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-    </row>
-    <row r="3" spans="1:10" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="10" t="s">
-        <v>69</v>
-      </c>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+    </row>
+    <row r="3" spans="1:15" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="62"/>
       <c r="H3" s="10" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -1226,13 +1302,13 @@
       <c r="D5" s="7">
         <v>4</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="43">
         <v>5</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="12">
+      <c r="F5" s="51">
         <v>6</v>
       </c>
+      <c r="G5" s="52"/>
       <c r="H5" s="12">
         <v>7</v>
       </c>
@@ -1242,149 +1318,200 @@
       <c r="J5" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="49">
-        <v>1</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>68</v>
+      <c r="K5" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
+        <v>1</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>62</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="49">
-        <v>1</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="1:10" s="5" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34">
+        <v>56</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="53">
+        <f>IF((AND(H6)=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="54"/>
+      <c r="H6" s="31">
+        <v>1</v>
+      </c>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" s="5" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31">
         <v>2</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>68</v>
+      <c r="B7" s="25" t="s">
+        <v>62</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="34">
+      <c r="E7" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="53">
+        <f>IF((AND(H7)=FALSE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="54"/>
+      <c r="H7" s="31">
         <v>0</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-    </row>
-    <row r="8" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34">
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+    </row>
+    <row r="8" spans="1:15" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
         <v>3</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>10</v>
+      <c r="B8" s="25" t="s">
+        <v>9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="53"/>
-      <c r="G8" s="34">
-        <v>1</v>
-      </c>
-      <c r="H8" s="34">
+      <c r="E8" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="53">
+        <f>IF((AND(H8,(NOT(I8)))=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="54"/>
+      <c r="H8" s="31">
+        <v>1</v>
+      </c>
+      <c r="I8" s="31">
         <v>0</v>
       </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-    </row>
-    <row r="9" spans="1:10" s="5" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34">
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+    </row>
+    <row r="9" spans="1:15" s="5" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
         <v>4</v>
       </c>
-      <c r="B9" s="27" t="s">
-        <v>11</v>
+      <c r="B9" s="25" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="53"/>
-      <c r="G9" s="34">
-        <v>1</v>
-      </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34">
+      <c r="E9" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="53">
+        <f>IF((AND(H9,(NOT(J9)))=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="54"/>
+      <c r="H9" s="31">
+        <v>1</v>
+      </c>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31">
         <v>0</v>
       </c>
-      <c r="J9" s="34"/>
-    </row>
-    <row r="10" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34">
+      <c r="K9" s="31"/>
+      <c r="L9" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+    </row>
+    <row r="10" spans="1:15" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>5</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>12</v>
+      <c r="B10" s="25" t="s">
+        <v>11</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="53"/>
-      <c r="G10" s="34">
-        <v>1</v>
-      </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34">
+      <c r="E10" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="53">
+        <f>IF((AND(H10,(NOT(K10)))=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="54"/>
+      <c r="H10" s="31">
+        <v>1</v>
+      </c>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31">
         <v>0</v>
       </c>
+      <c r="L10" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A1:J1"/>
+  <mergeCells count="19">
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="F2:F4"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -1399,108 +1526,108 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:G7"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="8" customWidth="1"/>
     <col min="4" max="4" width="31" style="8" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="9" style="8" customWidth="1"/>
     <col min="7" max="7" width="5.85546875" style="4" customWidth="1"/>
     <col min="8" max="11" width="3" style="3" customWidth="1"/>
     <col min="12" max="16384" width="5.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
+      <c r="A1" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
     </row>
     <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="E2" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
     </row>
     <row r="3" spans="1:13" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="61"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="62"/>
       <c r="H3" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="15" t="s">
         <v>52</v>
       </c>
       <c r="H4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1519,159 +1646,171 @@
       <c r="E5" s="6">
         <v>5</v>
       </c>
-      <c r="F5" s="64">
+      <c r="F5" s="51">
         <v>6</v>
       </c>
-      <c r="G5" s="65"/>
+      <c r="G5" s="52"/>
       <c r="H5" s="6">
         <v>7</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="33">
         <v>8</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="34">
         <v>9</v>
       </c>
       <c r="K5" s="12">
         <v>10</v>
       </c>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-    </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
-        <v>1</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="22">
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
+        <v>1</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="52"/>
+      <c r="H6" s="49">
         <v>0</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48">
+      <c r="A7" s="20">
         <v>2</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>68</v>
+      <c r="B7" s="25" t="s">
+        <v>62</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>55</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="48">
-        <v>1</v>
-      </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="47"/>
+        <v>34</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="71"/>
+      <c r="H7" s="20">
+        <v>1</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="30"/>
     </row>
     <row r="8" spans="1:13" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
+      <c r="A8" s="20">
         <v>3</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>10</v>
+      <c r="B8" s="25" t="s">
+        <v>9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="52"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="21"/>
+        <v>35</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="71"/>
+      <c r="H8" s="19"/>
       <c r="I8" s="14">
         <v>1</v>
       </c>
       <c r="J8" s="14">
         <v>0</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="5" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
+      <c r="A9" s="20">
         <v>4</v>
       </c>
-      <c r="B9" s="27" t="s">
-        <v>11</v>
+      <c r="B9" s="25" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>58</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="52"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22">
+        <v>36</v>
+      </c>
+      <c r="F9" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="71"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20">
         <v>0</v>
       </c>
-      <c r="J9" s="22">
-        <v>1</v>
-      </c>
-      <c r="K9" s="22">
+      <c r="J9" s="20">
+        <v>1</v>
+      </c>
+      <c r="K9" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
+      <c r="A10" s="5">
         <v>5</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>12</v>
+      <c r="B10" s="25" t="s">
+        <v>11</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="52"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22">
+        <v>41</v>
+      </c>
+      <c r="F10" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="71"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20">
         <v>0</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="20">
         <v>0</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1688,11 +1827,11 @@
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -1704,10 +1843,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:T186"/>
+  <dimension ref="A1:S187"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1715,80 +1854,76 @@
     <col min="1" max="1" width="4.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="8" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="4" style="3" customWidth="1"/>
-    <col min="5" max="5" width="41.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="52.85546875" style="4" customWidth="1"/>
-    <col min="7" max="9" width="3" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="5.42578125" style="1"/>
+    <col min="4" max="4" width="5.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" style="4" customWidth="1"/>
+    <col min="6" max="8" width="3" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="5.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-    </row>
-    <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+    <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+    </row>
+    <row r="2" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-    </row>
-    <row r="3" spans="1:20" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="44" t="s">
+      <c r="B2" s="58" t="s">
         <v>68</v>
       </c>
+      <c r="C2" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+    </row>
+    <row r="3" spans="1:19" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="H3" s="10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="43" t="s">
-        <v>5</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>16</v>
@@ -1799,29 +1934,26 @@
       <c r="I4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="38"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K4" s="35"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>1</v>
       </c>
       <c r="B5" s="12">
         <v>2</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="31">
         <v>3</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="51">
         <v>4</v>
       </c>
-      <c r="E5" s="69">
+      <c r="E5" s="52"/>
+      <c r="F5" s="36">
         <v>5</v>
       </c>
-      <c r="F5" s="70"/>
-      <c r="G5" s="40">
+      <c r="G5" s="12">
         <v>6</v>
       </c>
       <c r="H5" s="12">
@@ -1830,217 +1962,271 @@
       <c r="I5" s="12">
         <v>8</v>
       </c>
-      <c r="J5" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>1</v>
       </c>
-      <c r="B6" s="42" t="s">
-        <v>68</v>
+      <c r="B6" s="38" t="s">
+        <v>62</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="12">
-        <f>IF((AND(G6)=TRUE),1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="40">
-        <v>1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D6" s="51">
+        <f>IF((AND(F6)=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="52"/>
+      <c r="F6" s="36">
+        <v>1</v>
+      </c>
+      <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="74"/>
+    </row>
+    <row r="7" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="51">
+        <f>IF((AND(G7,(NOT(H7)),(NOT(I7)))=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="52"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="18">
+        <v>1</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0</v>
+      </c>
+      <c r="I7" s="18">
+        <v>0</v>
+      </c>
+      <c r="J7" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+    </row>
+    <row r="8" spans="1:19" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
+        <v>3</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="51">
+        <f>IF((AND(H8,(NOT(G8)),(NOT(I8)))=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="52"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="31">
+        <v>0</v>
+      </c>
+      <c r="H8" s="31">
+        <v>1</v>
+      </c>
+      <c r="I8" s="31">
+        <v>0</v>
+      </c>
+      <c r="J8" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
+    </row>
+    <row r="9" spans="1:19" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
+        <v>4</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="12">
-        <f>IF((AND(H7,(NOT(I7)),(NOT(J7)))=TRUE),1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="20">
-        <v>1</v>
-      </c>
-      <c r="I7" s="20">
+      <c r="D9" s="51">
+        <f>IF((AND(I9,(NOT(G9)),(NOT(H9)))=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="52"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="18">
         <v>0</v>
       </c>
-      <c r="J7" s="20">
+      <c r="H9" s="18">
         <v>0</v>
       </c>
-      <c r="K7" s="66"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="67"/>
-      <c r="T7" s="67"/>
-    </row>
-    <row r="8" spans="1:20" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34">
-        <v>3</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="I9" s="18">
+        <v>1</v>
+      </c>
+      <c r="J9" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+    </row>
+    <row r="10" spans="1:19" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31">
+        <v>5</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="12">
-        <f>IF((AND(I8,(NOT(H8)),(NOT(J8)))=TRUE),1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E8" s="73"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="34">
-        <v>0</v>
-      </c>
-      <c r="I8" s="34">
-        <v>1</v>
-      </c>
-      <c r="J8" s="34">
-        <v>0</v>
-      </c>
-      <c r="K8" s="66"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-    </row>
-    <row r="9" spans="1:20" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34">
-        <v>4</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="D10" s="51">
+        <f>IF((AND(F10)=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="52"/>
+      <c r="F10" s="37">
+        <v>1</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" s="72"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31">
+        <v>6</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="12">
-        <f>IF((AND(J9,(NOT(H9)),(NOT(I9)))=TRUE),1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="20">
-        <v>0</v>
-      </c>
-      <c r="I9" s="20">
-        <v>0</v>
-      </c>
-      <c r="J9" s="20">
-        <v>1</v>
-      </c>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-    </row>
-    <row r="10" spans="1:20" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34">
-        <v>6</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="D11" s="78">
+        <f>IF((AND(G11)=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="79"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="31">
+        <v>1</v>
+      </c>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" s="76"/>
+    </row>
+    <row r="12" spans="1:19" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="31">
+        <v>7</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="39">
-        <f>IF((AND(H10)=TRUE),1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="34">
-        <v>1</v>
-      </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-    </row>
-    <row r="11" spans="1:20" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34">
-        <v>7</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="33">
-        <f>IF((AND(I11)=TRUE),1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20">
-        <v>1</v>
-      </c>
-      <c r="J11" s="19"/>
-    </row>
-    <row r="12" spans="1:20" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34">
+      <c r="D12" s="80">
+        <f>IF((AND(H12)=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="81"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18">
+        <v>1</v>
+      </c>
+      <c r="I12" s="17"/>
+      <c r="J12" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" s="76"/>
+    </row>
+    <row r="13" spans="1:19" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="31">
         <v>8</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="B13" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="33">
-        <f>IF((AND(J12)=TRUE),1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E12" s="73"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="80">
+        <f>IF((AND(I13)=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="81"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31">
+        <v>1</v>
+      </c>
+      <c r="J13" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="K13" s="76"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2049,9 +2235,8 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2060,9 +2245,8 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2071,9 +2255,8 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2082,9 +2265,8 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2093,9 +2275,8 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2104,9 +2285,8 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2115,9 +2295,8 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2126,9 +2305,8 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2137,9 +2315,8 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2148,9 +2325,8 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2159,9 +2335,8 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2170,9 +2345,8 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2181,9 +2355,8 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2192,9 +2365,8 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2203,9 +2375,8 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2214,9 +2385,8 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2225,9 +2395,8 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2236,9 +2405,8 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2247,9 +2415,8 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2258,9 +2425,8 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2269,9 +2435,8 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2280,9 +2445,8 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2291,9 +2455,8 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2302,9 +2465,8 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2313,9 +2475,8 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2324,9 +2485,8 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2335,9 +2495,8 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2346,9 +2505,8 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2357,9 +2515,8 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2368,9 +2525,8 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2379,9 +2535,8 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2390,9 +2545,8 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2401,9 +2555,8 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2412,9 +2565,8 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2423,9 +2575,8 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2434,9 +2585,8 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2445,9 +2595,8 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2456,9 +2605,8 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2467,9 +2615,8 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2478,9 +2625,8 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2489,9 +2635,8 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2500,9 +2645,8 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2511,9 +2655,8 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2522,9 +2665,8 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2533,9 +2675,8 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2544,9 +2685,8 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2555,9 +2695,8 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2566,9 +2705,8 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2577,9 +2715,8 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2588,9 +2725,8 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2599,9 +2735,8 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2610,9 +2745,8 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2621,9 +2755,8 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2632,9 +2765,8 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2643,9 +2775,8 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2654,9 +2785,8 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2665,9 +2795,8 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2676,9 +2805,8 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2687,9 +2815,8 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2698,9 +2825,8 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2709,9 +2835,8 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2720,9 +2845,8 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2731,9 +2855,8 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2742,9 +2865,8 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2753,9 +2875,8 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2764,9 +2885,8 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2775,9 +2895,8 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2786,9 +2905,8 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2797,9 +2915,8 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2808,9 +2925,8 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2819,9 +2935,8 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2830,9 +2945,8 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2841,9 +2955,8 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2852,9 +2965,8 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -2863,9 +2975,8 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2874,9 +2985,8 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2885,9 +2995,8 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -2896,9 +3005,8 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2907,9 +3015,8 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -2918,9 +3025,8 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -2929,9 +3035,8 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -2940,9 +3045,8 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -2951,9 +3055,8 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -2962,9 +3065,8 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -2973,9 +3075,8 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -2984,9 +3085,8 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -2995,9 +3095,8 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3006,9 +3105,8 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3017,9 +3115,8 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3028,9 +3125,8 @@
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3039,9 +3135,8 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3050,9 +3145,8 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3061,9 +3155,8 @@
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3072,9 +3165,8 @@
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -3083,9 +3175,8 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -3094,9 +3185,8 @@
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -3105,9 +3195,8 @@
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -3116,9 +3205,8 @@
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -3127,9 +3215,8 @@
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -3138,9 +3225,8 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3149,9 +3235,8 @@
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -3160,9 +3245,8 @@
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -3171,9 +3255,8 @@
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -3182,9 +3265,8 @@
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -3193,9 +3275,8 @@
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -3204,9 +3285,8 @@
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -3215,9 +3295,8 @@
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -3226,9 +3305,8 @@
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -3237,9 +3315,8 @@
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -3248,9 +3325,8 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -3259,9 +3335,8 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -3270,9 +3345,8 @@
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -3281,9 +3355,8 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -3292,9 +3365,8 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -3303,9 +3375,8 @@
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -3314,9 +3385,8 @@
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
-      <c r="I134" s="1"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -3325,9 +3395,8 @@
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -3336,9 +3405,8 @@
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
-      <c r="I136" s="1"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -3347,9 +3415,8 @@
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -3358,9 +3425,8 @@
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
-      <c r="I138" s="1"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -3369,9 +3435,8 @@
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
-      <c r="I139" s="1"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -3380,9 +3445,8 @@
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
-      <c r="I140" s="1"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -3391,9 +3455,8 @@
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
-      <c r="I141" s="1"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -3402,9 +3465,8 @@
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
-      <c r="I142" s="1"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -3413,9 +3475,8 @@
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
-      <c r="I143" s="1"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -3424,9 +3485,8 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
-      <c r="I144" s="1"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -3435,9 +3495,8 @@
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
-      <c r="I145" s="1"/>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -3446,9 +3505,8 @@
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
-      <c r="I146" s="1"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -3457,9 +3515,8 @@
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
-      <c r="I147" s="1"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -3468,9 +3525,8 @@
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -3479,9 +3535,8 @@
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
-      <c r="I149" s="1"/>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -3490,9 +3545,8 @@
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
-      <c r="I150" s="1"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -3501,9 +3555,8 @@
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
-      <c r="I151" s="1"/>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -3512,9 +3565,8 @@
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
-      <c r="I152" s="1"/>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -3523,9 +3575,8 @@
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
-      <c r="I153" s="1"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -3534,9 +3585,8 @@
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
-      <c r="I154" s="1"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -3545,9 +3595,8 @@
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
-      <c r="I155" s="1"/>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -3556,9 +3605,8 @@
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
-      <c r="I156" s="1"/>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -3567,9 +3615,8 @@
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
-      <c r="I157" s="1"/>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -3578,9 +3625,8 @@
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
-      <c r="I158" s="1"/>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -3589,9 +3635,8 @@
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
-      <c r="I159" s="1"/>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -3600,9 +3645,8 @@
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
-      <c r="I160" s="1"/>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -3611,9 +3655,8 @@
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
-      <c r="I161" s="1"/>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -3622,9 +3665,8 @@
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
-      <c r="I162" s="1"/>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -3633,9 +3675,8 @@
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
-      <c r="I163" s="1"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -3644,9 +3685,8 @@
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
-      <c r="I164" s="1"/>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -3655,9 +3695,8 @@
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
-      <c r="I165" s="1"/>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -3666,9 +3705,8 @@
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
-      <c r="I166" s="1"/>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -3677,9 +3715,8 @@
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
-      <c r="I167" s="1"/>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -3688,9 +3725,8 @@
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
-      <c r="I168" s="1"/>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -3699,9 +3735,8 @@
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
-      <c r="I169" s="1"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -3710,9 +3745,8 @@
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
-      <c r="I170" s="1"/>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -3721,9 +3755,8 @@
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
-      <c r="I171" s="1"/>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -3732,9 +3765,8 @@
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
-      <c r="I172" s="1"/>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -3743,9 +3775,8 @@
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
-      <c r="I173" s="1"/>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -3754,9 +3785,8 @@
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
-      <c r="I174" s="1"/>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -3765,9 +3795,8 @@
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
-      <c r="I175" s="1"/>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -3776,9 +3805,8 @@
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
-      <c r="I176" s="1"/>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -3787,9 +3815,8 @@
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
-      <c r="I177" s="1"/>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -3798,9 +3825,8 @@
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
-      <c r="I178" s="1"/>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -3809,9 +3835,8 @@
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
-      <c r="I179" s="1"/>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -3820,9 +3845,8 @@
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
-      <c r="I180" s="1"/>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -3831,9 +3855,8 @@
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
-      <c r="I181" s="1"/>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -3842,9 +3865,8 @@
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
-      <c r="I182" s="1"/>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -3853,9 +3875,8 @@
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
-      <c r="I183" s="1"/>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -3864,9 +3885,8 @@
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
-      <c r="I184" s="1"/>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -3875,9 +3895,8 @@
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
-      <c r="I185" s="1"/>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -3886,29 +3905,45 @@
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
-      <c r="I186" s="1"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
+      <c r="H187" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="K7:T7"/>
-    <mergeCell ref="K8:R8"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="E6:F6"/>
+  <mergeCells count="26">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
-    <mergeCell ref="E2:E4"/>
     <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E16:M16"/>
+    <mergeCell ref="J6:S6"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="E15:M15"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -3920,134 +3955,130 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13" style="8" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="4" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11" style="4" customWidth="1"/>
-    <col min="9" max="10" width="3" style="3" customWidth="1"/>
-    <col min="11" max="11" width="3.5703125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="3.7109375" style="3" customWidth="1"/>
-    <col min="13" max="14" width="3.5703125" style="3" customWidth="1"/>
-    <col min="15" max="16" width="3.85546875" style="3" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="5.42578125" style="1"/>
+    <col min="2" max="2" width="9.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="46" customWidth="1"/>
+    <col min="8" max="9" width="3" style="3" customWidth="1"/>
+    <col min="10" max="10" width="3.5703125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" style="3" customWidth="1"/>
+    <col min="12" max="13" width="3.5703125" style="3" customWidth="1"/>
+    <col min="14" max="15" width="3.85546875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="4.7109375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="5.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-    </row>
-    <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+    </row>
+    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="78"/>
-    </row>
-    <row r="3" spans="1:17" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
+      <c r="E2" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="87"/>
+    </row>
+    <row r="3" spans="1:16" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="I3" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q3" s="45" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" s="41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="42" t="s">
         <v>52</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>16</v>
@@ -4068,16 +4099,13 @@
         <v>21</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q4" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -4093,13 +4121,13 @@
       <c r="E5" s="6">
         <v>5</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="51">
         <v>6</v>
       </c>
-      <c r="G5" s="80">
+      <c r="G5" s="52"/>
+      <c r="H5" s="12">
         <v>7</v>
       </c>
-      <c r="H5" s="80"/>
       <c r="I5" s="12">
         <v>8</v>
       </c>
@@ -4124,550 +4152,596 @@
       <c r="P5" s="12">
         <v>15</v>
       </c>
-      <c r="Q5" s="46">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:16" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>1</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>68</v>
+      <c r="B6" s="25" t="s">
+        <v>62</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>56</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="17">
-        <v>1</v>
-      </c>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="16">
-        <v>1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F6" s="83">
+        <v>1</v>
+      </c>
+      <c r="G6" s="84"/>
+      <c r="H6" s="16">
+        <v>1</v>
+      </c>
+      <c r="I6" s="14"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="41"/>
-    </row>
-    <row r="7" spans="1:17" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O6" s="22"/>
+      <c r="P6" s="37"/>
+    </row>
+    <row r="7" spans="1:16" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>68</v>
+      <c r="B7" s="25" t="s">
+        <v>62</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>55</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="17">
-        <v>1</v>
-      </c>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="16">
+        <v>27</v>
+      </c>
+      <c r="F7" s="83">
+        <v>1</v>
+      </c>
+      <c r="G7" s="84"/>
+      <c r="H7" s="16">
         <v>0</v>
       </c>
+      <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="41"/>
-    </row>
-    <row r="8" spans="1:17" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
+      <c r="O7" s="22"/>
+      <c r="P7" s="37"/>
+    </row>
+    <row r="8" spans="1:16" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
         <v>3</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>10</v>
+      <c r="B8" s="25" t="s">
+        <v>9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>54</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="33">
-        <v>1</v>
-      </c>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="34">
-        <v>1</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F8" s="83">
+        <v>1</v>
+      </c>
+      <c r="G8" s="84"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="31">
+        <v>1</v>
+      </c>
+      <c r="J8" s="14"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="41"/>
-    </row>
-    <row r="9" spans="1:17" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32">
+      <c r="O8" s="22"/>
+      <c r="P8" s="37"/>
+    </row>
+    <row r="9" spans="1:16" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
         <v>4</v>
       </c>
-      <c r="B9" s="27" t="s">
-        <v>10</v>
+      <c r="B9" s="25" t="s">
+        <v>9</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="33">
-        <v>1</v>
-      </c>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="34">
+        <v>28</v>
+      </c>
+      <c r="F9" s="83">
+        <v>1</v>
+      </c>
+      <c r="G9" s="84"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="31">
         <v>0</v>
       </c>
+      <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="41"/>
-    </row>
-    <row r="10" spans="1:17" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
+      <c r="O9" s="22"/>
+      <c r="P9" s="37"/>
+    </row>
+    <row r="10" spans="1:16" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29">
         <v>5</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>11</v>
+      <c r="B10" s="25" t="s">
+        <v>10</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>57</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="33">
-        <v>1</v>
-      </c>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="16">
-        <v>1</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="F10" s="83">
+        <v>1</v>
+      </c>
+      <c r="G10" s="84"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="16">
+        <v>1</v>
+      </c>
+      <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="41"/>
-    </row>
-    <row r="11" spans="1:17" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32">
+      <c r="O10" s="22"/>
+      <c r="P10" s="37"/>
+    </row>
+    <row r="11" spans="1:16" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29">
         <v>6</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>11</v>
+      <c r="B11" s="25" t="s">
+        <v>10</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>58</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="33">
-        <v>1</v>
-      </c>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="16">
+        <v>29</v>
+      </c>
+      <c r="F11" s="83">
+        <v>1</v>
+      </c>
+      <c r="G11" s="84"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="16">
         <v>0</v>
       </c>
+      <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="41"/>
-    </row>
-    <row r="12" spans="1:17" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32">
+      <c r="O11" s="22"/>
+      <c r="P11" s="37"/>
+    </row>
+    <row r="12" spans="1:16" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29">
         <v>7</v>
       </c>
-      <c r="B12" s="27" t="s">
-        <v>12</v>
+      <c r="B12" s="25" t="s">
+        <v>11</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>59</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="33">
-        <v>1</v>
-      </c>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="16">
-        <v>1</v>
-      </c>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="41"/>
-    </row>
-    <row r="13" spans="1:17" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
+        <v>30</v>
+      </c>
+      <c r="F12" s="83">
+        <v>1</v>
+      </c>
+      <c r="G12" s="84"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="16">
+        <v>1</v>
+      </c>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="37"/>
+    </row>
+    <row r="13" spans="1:16" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29">
         <v>8</v>
       </c>
-      <c r="B13" s="27" t="s">
-        <v>12</v>
+      <c r="B13" s="25" t="s">
+        <v>11</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="33">
-        <v>1</v>
-      </c>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="16">
+        <v>30</v>
+      </c>
+      <c r="F13" s="83">
+        <v>1</v>
+      </c>
+      <c r="G13" s="84"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="16">
         <v>0</v>
       </c>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="41"/>
-    </row>
-    <row r="14" spans="1:17" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32">
-        <v>11</v>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="37"/>
+    </row>
+    <row r="14" spans="1:16" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29">
+        <v>9</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="33">
-        <v>1</v>
-      </c>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="16"/>
+        <v>31</v>
+      </c>
+      <c r="F14" s="83">
+        <v>1</v>
+      </c>
+      <c r="G14" s="84"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="14"/>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
+      <c r="L14" s="16">
+        <v>1</v>
+      </c>
       <c r="M14" s="14"/>
-      <c r="N14" s="16">
-        <v>1</v>
-      </c>
-      <c r="O14" s="14"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="41"/>
-    </row>
-    <row r="15" spans="1:17" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32">
-        <v>12</v>
+      <c r="N14" s="14"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="37"/>
+    </row>
+    <row r="15" spans="1:16" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="29">
+        <v>10</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="33">
-        <v>1</v>
-      </c>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="16"/>
+        <v>31</v>
+      </c>
+      <c r="F15" s="83">
+        <v>1</v>
+      </c>
+      <c r="G15" s="84"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="14"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
+      <c r="L15" s="16">
+        <v>0</v>
+      </c>
       <c r="M15" s="14"/>
-      <c r="N15" s="16">
-        <v>0</v>
-      </c>
-      <c r="O15" s="14"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="41"/>
-    </row>
-    <row r="16" spans="1:17" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32">
-        <v>13</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>86</v>
+      <c r="N15" s="14"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="37"/>
+    </row>
+    <row r="16" spans="1:16" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="29">
+        <v>11</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>64</v>
+        <v>44</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="33">
-        <v>1</v>
-      </c>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="16"/>
+        <v>32</v>
+      </c>
+      <c r="F16" s="83">
+        <v>1</v>
+      </c>
+      <c r="G16" s="84"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="14"/>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
+      <c r="M16" s="16">
+        <v>1</v>
+      </c>
       <c r="N16" s="14"/>
-      <c r="O16" s="16">
-        <v>1</v>
-      </c>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="41"/>
-    </row>
-    <row r="17" spans="1:17" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32">
+      <c r="O16" s="22"/>
+      <c r="P16" s="37"/>
+    </row>
+    <row r="17" spans="1:16" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="29">
+        <v>12</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="83">
+        <v>1</v>
+      </c>
+      <c r="G17" s="84"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="16">
+        <v>0</v>
+      </c>
+      <c r="N17" s="14"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="37"/>
+    </row>
+    <row r="18" spans="1:16" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="29">
+        <v>13</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="83">
+        <v>1</v>
+      </c>
+      <c r="G18" s="84"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="16">
+        <v>1</v>
+      </c>
+      <c r="O18" s="22"/>
+      <c r="P18" s="37"/>
+    </row>
+    <row r="19" spans="1:16" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="29">
         <v>14</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="B19" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="33">
-        <v>1</v>
-      </c>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="16">
+      <c r="D19" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="83">
+        <v>1</v>
+      </c>
+      <c r="G19" s="84"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="16">
         <v>0</v>
       </c>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="41"/>
-    </row>
-    <row r="18" spans="1:17" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32">
+      <c r="O19" s="22"/>
+      <c r="P19" s="37"/>
+    </row>
+    <row r="20" spans="1:16" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="29">
         <v>15</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="B20" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="83">
+        <v>1</v>
+      </c>
+      <c r="G20" s="84"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="16">
+        <v>1</v>
+      </c>
+      <c r="P20" s="37"/>
+    </row>
+    <row r="21" spans="1:16" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="29">
+        <v>16</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="13" t="s">
+      <c r="D21" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="33">
-        <v>1</v>
-      </c>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="41"/>
-    </row>
-    <row r="19" spans="1:17" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32">
-        <v>16</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="33">
-        <v>1</v>
-      </c>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="16">
+      <c r="F21" s="83">
+        <v>1</v>
+      </c>
+      <c r="G21" s="84"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="16">
         <v>0</v>
       </c>
-      <c r="Q19" s="41"/>
-    </row>
-    <row r="20" spans="1:17" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34">
+      <c r="P21" s="37"/>
+    </row>
+    <row r="22" spans="1:16" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="31">
         <v>17</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="13" t="s">
+      <c r="B22" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="33">
-        <v>1</v>
-      </c>
-      <c r="G20" s="71"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
+      <c r="F22" s="83">
+        <v>1</v>
+      </c>
+      <c r="G22" s="84"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G5:H5"/>
+  <mergeCells count="26">
+    <mergeCell ref="H2:P2"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="E2:E4"/>
-    <mergeCell ref="I2:Q2"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Excel файлы/Логика.xlsx
+++ b/Excel файлы/Логика.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VS projects\Traffic_Lights\Excel файлы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC4BEBF-EFB7-45FC-9F07-2DB6013F895A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44C0526-A279-448D-9847-CF08979E4DAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="789" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="789" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Логика разреш.включ.кнопок" sheetId="55" r:id="rId1"/>
@@ -730,18 +730,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -778,12 +784,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -793,6 +793,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -823,22 +826,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1184,7 +1184,7 @@
   </sheetPr>
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="L8" sqref="L8:O8"/>
     </sheetView>
   </sheetViews>
@@ -1202,57 +1202,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="62" t="s">
+      <c r="F2" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="H2" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
     </row>
     <row r="3" spans="1:15" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="62"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="64"/>
       <c r="H3" s="10" t="s">
         <v>63</v>
       </c>
@@ -1267,12 +1267,12 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="66"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="32" t="s">
         <v>52</v>
       </c>
@@ -1305,10 +1305,10 @@
       <c r="E5" s="43">
         <v>5</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="55">
         <v>6</v>
       </c>
-      <c r="G5" s="52"/>
+      <c r="G5" s="56"/>
       <c r="H5" s="12">
         <v>7</v>
       </c>
@@ -1377,11 +1377,11 @@
       <c r="I7" s="31"/>
       <c r="J7" s="31"/>
       <c r="K7" s="31"/>
-      <c r="L7" s="67" t="s">
+      <c r="L7" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
     </row>
     <row r="8" spans="1:15" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
@@ -1412,12 +1412,12 @@
       </c>
       <c r="J8" s="31"/>
       <c r="K8" s="31"/>
-      <c r="L8" s="67" t="s">
+      <c r="L8" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
     </row>
     <row r="9" spans="1:15" s="5" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
@@ -1448,12 +1448,12 @@
         <v>0</v>
       </c>
       <c r="K9" s="31"/>
-      <c r="L9" s="67" t="s">
+      <c r="L9" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
     </row>
     <row r="10" spans="1:15" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -1484,22 +1484,15 @@
       <c r="K10" s="31">
         <v>0</v>
       </c>
-      <c r="L10" s="67" t="s">
+      <c r="L10" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F8:G8"/>
@@ -1512,6 +1505,13 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="F2:F4"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -1543,57 +1543,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="62" t="s">
+      <c r="G2" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="H2" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
     </row>
     <row r="3" spans="1:13" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="62"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="64"/>
       <c r="H3" s="10" t="s">
         <v>63</v>
       </c>
@@ -1608,12 +1608,12 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="15" t="s">
         <v>52</v>
       </c>
@@ -1646,10 +1646,10 @@
       <c r="E5" s="6">
         <v>5</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="55">
         <v>6</v>
       </c>
-      <c r="G5" s="52"/>
+      <c r="G5" s="56"/>
       <c r="H5" s="6">
         <v>7</v>
       </c>
@@ -1681,10 +1681,10 @@
       <c r="E6" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="52"/>
+      <c r="G6" s="56"/>
       <c r="H6" s="49">
         <v>0</v>
       </c>
@@ -1816,6 +1816,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
@@ -1825,13 +1832,6 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -1846,7 +1846,7 @@
   <dimension ref="A1:S187"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="D11" sqref="D11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1861,46 +1861,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
     </row>
     <row r="2" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="62" t="s">
+      <c r="D2" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
     </row>
     <row r="3" spans="1:19" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="82"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="72"/>
       <c r="F3" s="40" t="s">
         <v>62</v>
       </c>
@@ -1915,10 +1915,10 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="62"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="39" t="s">
         <v>4</v>
       </c>
@@ -1946,10 +1946,10 @@
       <c r="C5" s="31">
         <v>3</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="55">
         <v>4</v>
       </c>
-      <c r="E5" s="52"/>
+      <c r="E5" s="56"/>
       <c r="F5" s="36">
         <v>5</v>
       </c>
@@ -1973,29 +1973,29 @@
       <c r="C6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="55">
         <f>IF((AND(F6)=TRUE),1,0)</f>
         <v>1</v>
       </c>
-      <c r="E6" s="52"/>
+      <c r="E6" s="56"/>
       <c r="F6" s="36">
         <v>1</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="73" t="s">
+      <c r="J6" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="74"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
     </row>
     <row r="7" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
@@ -2007,11 +2007,11 @@
       <c r="C7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="55">
         <f>IF((AND(G7,(NOT(H7)),(NOT(I7)))=TRUE),1,0)</f>
         <v>1</v>
       </c>
-      <c r="E7" s="52"/>
+      <c r="E7" s="56"/>
       <c r="F7" s="36"/>
       <c r="G7" s="18">
         <v>1</v>
@@ -2022,15 +2022,15 @@
       <c r="I7" s="18">
         <v>0</v>
       </c>
-      <c r="J7" s="73" t="s">
+      <c r="J7" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
     </row>
     <row r="8" spans="1:19" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
@@ -2042,11 +2042,11 @@
       <c r="C8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="55">
         <f>IF((AND(H8,(NOT(G8)),(NOT(I8)))=TRUE),1,0)</f>
         <v>1</v>
       </c>
-      <c r="E8" s="52"/>
+      <c r="E8" s="56"/>
       <c r="F8" s="37"/>
       <c r="G8" s="31">
         <v>0</v>
@@ -2057,14 +2057,14 @@
       <c r="I8" s="31">
         <v>0</v>
       </c>
-      <c r="J8" s="75" t="s">
+      <c r="J8" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
     </row>
     <row r="9" spans="1:19" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
@@ -2076,11 +2076,11 @@
       <c r="C9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="55">
         <f>IF((AND(I9,(NOT(G9)),(NOT(H9)))=TRUE),1,0)</f>
         <v>1</v>
       </c>
-      <c r="E9" s="52"/>
+      <c r="E9" s="56"/>
       <c r="F9" s="37"/>
       <c r="G9" s="18">
         <v>0</v>
@@ -2091,12 +2091,12 @@
       <c r="I9" s="18">
         <v>1</v>
       </c>
-      <c r="J9" s="77" t="s">
+      <c r="J9" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
     </row>
     <row r="10" spans="1:19" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
@@ -2108,21 +2108,21 @@
       <c r="C10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="51">
-        <f>IF((AND(F10)=TRUE),1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="52"/>
+      <c r="D10" s="55">
+        <f>IF((AND(F10)=FALSE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="56"/>
       <c r="F10" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
-      <c r="J10" s="73" t="s">
+      <c r="J10" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="K10" s="72"/>
+      <c r="K10" s="73"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
@@ -2136,21 +2136,21 @@
       <c r="C11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="78">
+      <c r="D11" s="79">
         <f>IF((AND(G11)=TRUE),1,0)</f>
         <v>1</v>
       </c>
-      <c r="E11" s="79"/>
+      <c r="E11" s="80"/>
       <c r="F11" s="37"/>
       <c r="G11" s="31">
         <v>1</v>
       </c>
       <c r="H11" s="31"/>
       <c r="I11" s="31"/>
-      <c r="J11" s="75" t="s">
+      <c r="J11" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="K11" s="76"/>
+      <c r="K11" s="77"/>
     </row>
     <row r="12" spans="1:19" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
@@ -2162,21 +2162,21 @@
       <c r="C12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="80">
+      <c r="D12" s="81">
         <f>IF((AND(H12)=TRUE),1,0)</f>
         <v>1</v>
       </c>
-      <c r="E12" s="81"/>
+      <c r="E12" s="82"/>
       <c r="F12" s="37"/>
       <c r="G12" s="17"/>
       <c r="H12" s="18">
         <v>1</v>
       </c>
       <c r="I12" s="17"/>
-      <c r="J12" s="75" t="s">
+      <c r="J12" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="K12" s="76"/>
+      <c r="K12" s="77"/>
     </row>
     <row r="13" spans="1:19" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
@@ -2188,43 +2188,43 @@
       <c r="C13" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="80">
+      <c r="D13" s="81">
         <f>IF((AND(I13)=TRUE),1,0)</f>
         <v>1</v>
       </c>
-      <c r="E13" s="81"/>
+      <c r="E13" s="82"/>
       <c r="F13" s="37"/>
       <c r="G13" s="31"/>
       <c r="H13" s="31"/>
       <c r="I13" s="31">
         <v>1</v>
       </c>
-      <c r="J13" s="75" t="s">
+      <c r="J13" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="K13" s="76"/>
+      <c r="K13" s="77"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
@@ -3918,13 +3918,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="E16:M16"/>
     <mergeCell ref="J6:S6"/>
     <mergeCell ref="J7:P7"/>
@@ -3939,11 +3937,13 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -3957,8 +3957,8 @@
   </sheetPr>
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3998,47 +3998,47 @@
       <c r="O1" s="24"/>
     </row>
     <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="62" t="s">
+      <c r="F2" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="85" t="s">
+      <c r="H2" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="85"/>
     </row>
     <row r="3" spans="1:16" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
       <c r="H3" s="10" t="s">
         <v>63</v>
       </c>
@@ -4068,12 +4068,12 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="62"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="42" t="s">
         <v>52</v>
       </c>
@@ -4121,10 +4121,10 @@
       <c r="E5" s="6">
         <v>5</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="55">
         <v>6</v>
       </c>
-      <c r="G5" s="52"/>
+      <c r="G5" s="56"/>
       <c r="H5" s="12">
         <v>7</v>
       </c>
@@ -4169,10 +4169,10 @@
       <c r="E6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="83">
-        <v>1</v>
-      </c>
-      <c r="G6" s="84"/>
+      <c r="F6" s="86">
+        <v>1</v>
+      </c>
+      <c r="G6" s="87"/>
       <c r="H6" s="16">
         <v>1</v>
       </c>
@@ -4201,10 +4201,10 @@
       <c r="E7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="83">
-        <v>1</v>
-      </c>
-      <c r="G7" s="84"/>
+      <c r="F7" s="86">
+        <v>1</v>
+      </c>
+      <c r="G7" s="87"/>
       <c r="H7" s="16">
         <v>0</v>
       </c>
@@ -4233,10 +4233,10 @@
       <c r="E8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="83">
-        <v>1</v>
-      </c>
-      <c r="G8" s="84"/>
+      <c r="F8" s="86">
+        <v>1</v>
+      </c>
+      <c r="G8" s="87"/>
       <c r="H8" s="16"/>
       <c r="I8" s="31">
         <v>1</v>
@@ -4265,10 +4265,10 @@
       <c r="E9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="83">
-        <v>1</v>
-      </c>
-      <c r="G9" s="84"/>
+      <c r="F9" s="86">
+        <v>1</v>
+      </c>
+      <c r="G9" s="87"/>
       <c r="H9" s="16"/>
       <c r="I9" s="31">
         <v>0</v>
@@ -4297,10 +4297,10 @@
       <c r="E10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="83">
-        <v>1</v>
-      </c>
-      <c r="G10" s="84"/>
+      <c r="F10" s="86">
+        <v>1</v>
+      </c>
+      <c r="G10" s="87"/>
       <c r="H10" s="16"/>
       <c r="I10" s="14"/>
       <c r="J10" s="16">
@@ -4329,10 +4329,10 @@
       <c r="E11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="83">
-        <v>1</v>
-      </c>
-      <c r="G11" s="84"/>
+      <c r="F11" s="86">
+        <v>1</v>
+      </c>
+      <c r="G11" s="87"/>
       <c r="H11" s="16"/>
       <c r="I11" s="14"/>
       <c r="J11" s="16">
@@ -4361,10 +4361,10 @@
       <c r="E12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="83">
-        <v>1</v>
-      </c>
-      <c r="G12" s="84"/>
+      <c r="F12" s="86">
+        <v>1</v>
+      </c>
+      <c r="G12" s="87"/>
       <c r="H12" s="16"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
@@ -4393,10 +4393,10 @@
       <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="83">
-        <v>1</v>
-      </c>
-      <c r="G13" s="84"/>
+      <c r="F13" s="86">
+        <v>1</v>
+      </c>
+      <c r="G13" s="87"/>
       <c r="H13" s="16"/>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
@@ -4425,10 +4425,10 @@
       <c r="E14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="83">
-        <v>1</v>
-      </c>
-      <c r="G14" s="84"/>
+      <c r="F14" s="86">
+        <v>1</v>
+      </c>
+      <c r="G14" s="87"/>
       <c r="H14" s="16"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -4457,10 +4457,10 @@
       <c r="E15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="83">
-        <v>1</v>
-      </c>
-      <c r="G15" s="84"/>
+      <c r="F15" s="86">
+        <v>1</v>
+      </c>
+      <c r="G15" s="87"/>
       <c r="H15" s="16"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
@@ -4489,10 +4489,10 @@
       <c r="E16" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="83">
-        <v>1</v>
-      </c>
-      <c r="G16" s="84"/>
+      <c r="F16" s="86">
+        <v>1</v>
+      </c>
+      <c r="G16" s="87"/>
       <c r="H16" s="16"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -4521,10 +4521,10 @@
       <c r="E17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="83">
-        <v>1</v>
-      </c>
-      <c r="G17" s="84"/>
+      <c r="F17" s="86">
+        <v>1</v>
+      </c>
+      <c r="G17" s="87"/>
       <c r="H17" s="16"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -4553,10 +4553,10 @@
       <c r="E18" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="83">
-        <v>1</v>
-      </c>
-      <c r="G18" s="84"/>
+      <c r="F18" s="86">
+        <v>1</v>
+      </c>
+      <c r="G18" s="87"/>
       <c r="H18" s="16"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
@@ -4585,10 +4585,10 @@
       <c r="E19" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="83">
-        <v>1</v>
-      </c>
-      <c r="G19" s="84"/>
+      <c r="F19" s="86">
+        <v>1</v>
+      </c>
+      <c r="G19" s="87"/>
       <c r="H19" s="16"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
@@ -4617,10 +4617,10 @@
       <c r="E20" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="83">
-        <v>1</v>
-      </c>
-      <c r="G20" s="84"/>
+      <c r="F20" s="86">
+        <v>1</v>
+      </c>
+      <c r="G20" s="87"/>
       <c r="H20" s="16"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
@@ -4649,10 +4649,10 @@
       <c r="E21" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="83">
-        <v>1</v>
-      </c>
-      <c r="G21" s="84"/>
+      <c r="F21" s="86">
+        <v>1</v>
+      </c>
+      <c r="G21" s="87"/>
       <c r="H21" s="16"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
@@ -4681,10 +4681,10 @@
       <c r="E22" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="83">
-        <v>1</v>
-      </c>
-      <c r="G22" s="84"/>
+      <c r="F22" s="86">
+        <v>1</v>
+      </c>
+      <c r="G22" s="87"/>
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
       <c r="J22" s="37"/>
@@ -4716,6 +4716,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="H2:P2"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
@@ -4724,24 +4742,6 @@
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Excel файлы/Логика.xlsx
+++ b/Excel файлы/Логика.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VS projects\Traffic_Lights\Excel файлы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44C0526-A279-448D-9847-CF08979E4DAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA58ED47-581D-4462-B1F2-AFD9456476E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="789" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3958,7 +3958,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Excel файлы/Логика.xlsx
+++ b/Excel файлы/Логика.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VS projects\Traffic_Lights\Excel файлы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Traffic_Lights\Excel файлы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA58ED47-581D-4462-B1F2-AFD9456476E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="789" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-60" windowWidth="20730" windowHeight="11700" tabRatio="789" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Логика разреш.включ.кнопок" sheetId="55" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="логика связей ячеек tab1 и tab2" sheetId="53" r:id="rId3"/>
     <sheet name="логика состояний элементов" sheetId="54" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="208">
   <si>
     <t>№ п/п</t>
   </si>
@@ -247,27 +246,12 @@
     <t>КН1      красный</t>
   </si>
   <si>
-    <t>КН2     желтый</t>
-  </si>
-  <si>
     <t>КН3      зеленый</t>
   </si>
   <si>
     <t>основа холста</t>
   </si>
   <si>
-    <t xml:space="preserve"> Лн выкл(черный)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Лн1 вкл.(красный)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Лн2 вкл.(желтый)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Лн3 вкл.(зеленый)</t>
-  </si>
-  <si>
     <t>Лн выключены (черный)-вкл</t>
   </si>
   <si>
@@ -298,42 +282,6 @@
     <t>Логика связей ячеек table1 и table2 базы данных</t>
   </si>
   <si>
-    <t>И(G6)</t>
-  </si>
-  <si>
-    <t>И(H7;(НЕ(I7));(НЕ(J7)))</t>
-  </si>
-  <si>
-    <t>И(I8;(НЕ(H8));(НЕ(J8)))</t>
-  </si>
-  <si>
-    <t>И(G10)</t>
-  </si>
-  <si>
-    <t>И(J9;(НЕ(H9));(НЕ(I9)))</t>
-  </si>
-  <si>
-    <t>И(H11)</t>
-  </si>
-  <si>
-    <t>И(I12)</t>
-  </si>
-  <si>
-    <t>И(J13)</t>
-  </si>
-  <si>
-    <t>И(J7;(НЕ(K7)))</t>
-  </si>
-  <si>
-    <t>И(J8;(НЕ(L8)))</t>
-  </si>
-  <si>
-    <t>И(J9;(НЕ(M9)))</t>
-  </si>
-  <si>
-    <t>И(P12)</t>
-  </si>
-  <si>
     <t>ЛН1</t>
   </si>
   <si>
@@ -350,12 +298,382 @@
   </si>
   <si>
     <t>основа</t>
+  </si>
+  <si>
+    <t>Имя элемента и 
+состояние</t>
+  </si>
+  <si>
+    <t>И(H6)</t>
+  </si>
+  <si>
+    <t>И(НЕ(H7)</t>
+  </si>
+  <si>
+    <t>И(H8;(НЕ(I8)</t>
+  </si>
+  <si>
+    <t>И(H9;(НЕ(J9)</t>
+  </si>
+  <si>
+    <t>И(H10;(НЕ(K10)</t>
+  </si>
+  <si>
+    <t>И(F6)</t>
+  </si>
+  <si>
+    <t>И(F7;G7;(НЕ(H7));(НЕ(I7)</t>
+  </si>
+  <si>
+    <t>И(F8;H8;(НЕ(G8));(НЕ(I8)</t>
+  </si>
+  <si>
+    <t>И(F9;I9;(НЕ(G9));(НЕ(H9)</t>
+  </si>
+  <si>
+    <t>И(F11;G11)</t>
+  </si>
+  <si>
+    <t>И(F12;H12)</t>
+  </si>
+  <si>
+    <t>И(F13;I13)</t>
+  </si>
+  <si>
+    <t>И(I8)</t>
+  </si>
+  <si>
+    <t>И(J10)</t>
+  </si>
+  <si>
+    <t>И(K12)</t>
+  </si>
+  <si>
+    <t>И(L14)</t>
+  </si>
+  <si>
+    <t>И(M16)</t>
+  </si>
+  <si>
+    <t>И(N18)</t>
+  </si>
+  <si>
+    <t>И(O20)</t>
+  </si>
+  <si>
+    <t>И(P22)</t>
+  </si>
+  <si>
+    <t>И(НЕ(F10))</t>
+  </si>
+  <si>
+    <t>И(НЕ(H7))</t>
+  </si>
+  <si>
+    <t>И(НЕ(I9)</t>
+  </si>
+  <si>
+    <t>И(НЕ(J11))</t>
+  </si>
+  <si>
+    <t>И(НЕ(K13))</t>
+  </si>
+  <si>
+    <t>И(НЕ(L15))</t>
+  </si>
+  <si>
+    <t>И(НЕ(M17))</t>
+  </si>
+  <si>
+    <t>И(НЕ(N19))</t>
+  </si>
+  <si>
+    <t>И(НЕ(O21))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Имя элемента и состояние </t>
+  </si>
+  <si>
+    <t>И(F14)</t>
+  </si>
+  <si>
+    <t>elem10 table1</t>
+  </si>
+  <si>
+    <t>elem10</t>
+  </si>
+  <si>
+    <t>el1010051</t>
+  </si>
+  <si>
+    <t>el1010052</t>
+  </si>
+  <si>
+    <t>КН эл.</t>
+  </si>
+  <si>
+    <t>И(Q23)</t>
+  </si>
+  <si>
+    <t>И(НЕ(Q24))</t>
+  </si>
+  <si>
+    <t>КН элемент вкл. питания</t>
+  </si>
+  <si>
+    <t>Лн1 вкл.(красный)</t>
+  </si>
+  <si>
+    <t>Лн выкл(черный)</t>
+  </si>
+  <si>
+    <t>Лн2 вкл.(желтый)</t>
+  </si>
+  <si>
+    <t>Лн3 вкл.(зеленый)</t>
+  </si>
+  <si>
+    <t>КН2      желтый</t>
+  </si>
+  <si>
+    <t>КН элемент вкл. питания-вкл.</t>
+  </si>
+  <si>
+    <t>КН элемент вкл. питания-выкл.</t>
+  </si>
+  <si>
+    <t>el1010061</t>
+  </si>
+  <si>
+    <t>el1010062</t>
+  </si>
+  <si>
+    <t>el1010071</t>
+  </si>
+  <si>
+    <t>el1010072</t>
+  </si>
+  <si>
+    <t>el1010081</t>
+  </si>
+  <si>
+    <t>el1010082</t>
+  </si>
+  <si>
+    <t>П кр.
+(напр.)</t>
+  </si>
+  <si>
+    <t>П кр.
+(без. напр.)</t>
+  </si>
+  <si>
+    <t>П жел.
+(напр.)</t>
+  </si>
+  <si>
+    <t>П жел.
+(без. напр.)</t>
+  </si>
+  <si>
+    <t>П зел.
+(напр.)</t>
+  </si>
+  <si>
+    <t>П зел.
+(без. напр.)</t>
+  </si>
+  <si>
+    <t>П кр.
+(напр.) нет</t>
+  </si>
+  <si>
+    <t>П кр.
+(без. напр.) нет</t>
+  </si>
+  <si>
+    <t>П жел.
+(напр.) нет</t>
+  </si>
+  <si>
+    <t>el1010091</t>
+  </si>
+  <si>
+    <t>П жел.
+(без. напр.) нет</t>
+  </si>
+  <si>
+    <t>el1010092</t>
+  </si>
+  <si>
+    <t>el1010101</t>
+  </si>
+  <si>
+    <t>П зел.
+(напр.) нет</t>
+  </si>
+  <si>
+    <t>el1010102</t>
+  </si>
+  <si>
+    <t>el1010111</t>
+  </si>
+  <si>
+    <t>П зел.
+(без. напр.) нет</t>
+  </si>
+  <si>
+    <t>el1010112</t>
+  </si>
+  <si>
+    <t>Переключатель кр. (под напр.)-вкл.</t>
+  </si>
+  <si>
+    <t>Переключатель кр. (под напр.)-нет</t>
+  </si>
+  <si>
+    <t>Переключатель кр. (без напр.)-вкл.</t>
+  </si>
+  <si>
+    <t>Переключатель кр. (без напр.)-нет.</t>
+  </si>
+  <si>
+    <t>Переключатель жел. (под напр.)-вкл.</t>
+  </si>
+  <si>
+    <t>Переключатель жел. (под напр.)-нет</t>
+  </si>
+  <si>
+    <t>Переключатель жел. (без напр.)-вкл.</t>
+  </si>
+  <si>
+    <t>Переключатель жел. (без напр.)-нет</t>
+  </si>
+  <si>
+    <t>Переключатель зел. (под напр.)-вкл.</t>
+  </si>
+  <si>
+    <t>Переключатель зел. (под напр.)-нет</t>
+  </si>
+  <si>
+    <t>Переключатель зел. (без напр.)-вкл.</t>
+  </si>
+  <si>
+    <t>Переключатель зел. (без напр.)-нет</t>
+  </si>
+  <si>
+    <t>elem11 table1</t>
+  </si>
+  <si>
+    <t>elem12 table1</t>
+  </si>
+  <si>
+    <t>elem13 table1</t>
+  </si>
+  <si>
+    <t>elem14 table1</t>
+  </si>
+  <si>
+    <t>elem15 table1</t>
+  </si>
+  <si>
+    <t>elem16 table1</t>
+  </si>
+  <si>
+    <t>elem11</t>
+  </si>
+  <si>
+    <t>elem12</t>
+  </si>
+  <si>
+    <t>elem13</t>
+  </si>
+  <si>
+    <t>elem14</t>
+  </si>
+  <si>
+    <t>elem15</t>
+  </si>
+  <si>
+    <t>elem16</t>
+  </si>
+  <si>
+    <t>И(R25)</t>
+  </si>
+  <si>
+    <t>И(НЕ(R26))</t>
+  </si>
+  <si>
+    <t>И(S27)</t>
+  </si>
+  <si>
+    <t>И(НЕ(S28))</t>
+  </si>
+  <si>
+    <t>И(T29)</t>
+  </si>
+  <si>
+    <t>И(НЕ(T30))</t>
+  </si>
+  <si>
+    <t>И(U31)</t>
+  </si>
+  <si>
+    <t>И(НЕ(U32))</t>
+  </si>
+  <si>
+    <t>И(V33)</t>
+  </si>
+  <si>
+    <t>И(НЕ(V34))</t>
+  </si>
+  <si>
+    <t>И(W35)</t>
+  </si>
+  <si>
+    <t>И(НЕ(W36))</t>
+  </si>
+  <si>
+    <t>П кр.(под напр.)</t>
+  </si>
+  <si>
+    <t>П кр.(без напр.)</t>
+  </si>
+  <si>
+    <t>П жел.(под напр.)</t>
+  </si>
+  <si>
+    <t>П жел.(без напр.)</t>
+  </si>
+  <si>
+    <t>П зел.(под напр.)</t>
+  </si>
+  <si>
+    <t>П зел.(без напр.)</t>
+  </si>
+  <si>
+    <t>И(F15;G15)</t>
+  </si>
+  <si>
+    <t>И((НЕ(F16));G16)</t>
+  </si>
+  <si>
+    <t>И(F17;H17)</t>
+  </si>
+  <si>
+    <t>И((НЕ(F18));H18)</t>
+  </si>
+  <si>
+    <t>И(F19;I19)</t>
+  </si>
+  <si>
+    <t>И((НЕ(F20));I20)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -407,7 +725,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,8 +738,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -582,11 +906,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -659,15 +998,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -700,119 +1030,168 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" textRotation="180"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -826,14 +1205,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -934,23 +1310,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -986,23 +1345,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1178,14 +1520,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8:O8"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1202,57 +1544,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
     </row>
     <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="61" t="s">
+      <c r="D2" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="64" t="s">
+      <c r="F2" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
     </row>
     <row r="3" spans="1:15" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="64"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="80"/>
       <c r="H3" s="10" t="s">
         <v>63</v>
       </c>
@@ -1267,13 +1609,13 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="32" t="s">
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="29" t="s">
         <v>52</v>
       </c>
       <c r="H4" s="10" t="s">
@@ -1302,13 +1644,13 @@
       <c r="D5" s="7">
         <v>4</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="39">
         <v>5</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F5" s="71">
         <v>6</v>
       </c>
-      <c r="G5" s="56"/>
+      <c r="G5" s="72"/>
       <c r="H5" s="12">
         <v>7</v>
       </c>
@@ -1323,10 +1665,10 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31">
-        <v>1</v>
-      </c>
-      <c r="B6" s="50" t="s">
+      <c r="A6" s="28">
+        <v>1</v>
+      </c>
+      <c r="B6" s="45" t="s">
         <v>62</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -1335,23 +1677,26 @@
       <c r="D6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F6" s="69">
         <f>IF((AND(H6)=TRUE),1,0)</f>
         <v>1</v>
       </c>
-      <c r="G6" s="54"/>
-      <c r="H6" s="31">
-        <v>1</v>
-      </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="28">
+        <v>1</v>
+      </c>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="M6" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="7" spans="1:15" s="5" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31">
+      <c r="A7" s="28">
         <v>2</v>
       </c>
       <c r="B7" s="25" t="s">
@@ -1363,28 +1708,28 @@
       <c r="D7" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="53">
-        <f>IF((AND(H7)=FALSE),1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G7" s="54"/>
-      <c r="H7" s="31">
+      <c r="F7" s="69">
+        <f>IF((AND(NOT(H7))=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="70"/>
+      <c r="H7" s="28">
         <v>0</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
     </row>
     <row r="8" spans="1:15" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
+      <c r="A8" s="28">
         <v>3</v>
       </c>
       <c r="B8" s="25" t="s">
@@ -1396,31 +1741,29 @@
       <c r="D8" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="53">
-        <f>IF((AND(H8,(NOT(I8)))=TRUE),1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G8" s="54"/>
-      <c r="H8" s="31">
-        <v>1</v>
-      </c>
-      <c r="I8" s="31">
+      <c r="F8" s="69">
+        <f>IF((AND(NOT(I8))=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="70"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28">
         <v>0</v>
       </c>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
     </row>
     <row r="9" spans="1:15" s="5" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
+      <c r="A9" s="28">
         <v>4</v>
       </c>
       <c r="B9" s="25" t="s">
@@ -1432,28 +1775,26 @@
       <c r="D9" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="53">
-        <f>IF((AND(H9,(NOT(J9)))=TRUE),1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="31">
-        <v>1</v>
-      </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31">
+      <c r="F9" s="69">
+        <f>IF((AND(NOT(J9))=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="70"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28">
         <v>0</v>
       </c>
-      <c r="K9" s="31"/>
-      <c r="L9" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
     </row>
     <row r="10" spans="1:15" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -1468,28 +1809,26 @@
       <c r="D10" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="53">
-        <f>IF((AND(H10,(NOT(K10)))=TRUE),1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G10" s="54"/>
-      <c r="H10" s="31">
-        <v>1</v>
-      </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31">
+      <c r="F10" s="69">
+        <f>IF((AND(NOT(K10))=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="70"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28">
         <v>0</v>
       </c>
-      <c r="L10" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
+      <c r="L10" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -1519,14 +1858,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1543,57 +1882,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
+      <c r="A1" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
     </row>
     <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="61" t="s">
+      <c r="D2" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
     </row>
     <row r="3" spans="1:13" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="64"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="80"/>
       <c r="H3" s="10" t="s">
         <v>63</v>
       </c>
@@ -1608,12 +1947,12 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="15" t="s">
         <v>52</v>
       </c>
@@ -1646,53 +1985,53 @@
       <c r="E5" s="6">
         <v>5</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F5" s="71">
         <v>6</v>
       </c>
-      <c r="G5" s="56"/>
+      <c r="G5" s="72"/>
       <c r="H5" s="6">
         <v>7</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="30">
         <v>8</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="31">
         <v>9</v>
       </c>
       <c r="K5" s="12">
         <v>10</v>
       </c>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+    </row>
+    <row r="6" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>1</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="56"/>
-      <c r="H6" s="49">
+      <c r="G6" s="72"/>
+      <c r="H6" s="44">
         <v>0</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
@@ -1710,16 +2049,16 @@
       <c r="E7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="70" t="s">
+      <c r="F7" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="71"/>
+      <c r="G7" s="87"/>
       <c r="H7" s="20">
         <v>1</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
-      <c r="K7" s="30"/>
+      <c r="K7" s="27"/>
     </row>
     <row r="8" spans="1:13" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
@@ -1737,10 +2076,10 @@
       <c r="E8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="70" t="s">
+      <c r="F8" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="71"/>
+      <c r="G8" s="87"/>
       <c r="H8" s="19"/>
       <c r="I8" s="14">
         <v>1</v>
@@ -1768,10 +2107,10 @@
       <c r="E9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="70" t="s">
+      <c r="F9" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="71"/>
+      <c r="G9" s="87"/>
       <c r="H9" s="20"/>
       <c r="I9" s="20">
         <v>0</v>
@@ -1799,10 +2138,10 @@
       <c r="E10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="70" t="s">
+      <c r="F10" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="71"/>
+      <c r="G10" s="87"/>
       <c r="H10" s="20"/>
       <c r="I10" s="20">
         <v>0</v>
@@ -1839,87 +2178,93 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:S187"/>
+  <dimension ref="A1:T187"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:E11"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="8" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" style="8" customWidth="1"/>
     <col min="4" max="4" width="5.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" style="4" customWidth="1"/>
-    <col min="6" max="8" width="3" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="5.42578125" style="1"/>
+    <col min="5" max="5" width="5.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="3" style="3" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="1.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="5.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-    </row>
-    <row r="2" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+    <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+    </row>
+    <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="64" t="s">
+      <c r="D2" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-    </row>
-    <row r="3" spans="1:19" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="40" t="s">
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="49"/>
+    </row>
+    <row r="3" spans="1:20" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="37" t="s">
         <v>62</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>70</v>
       </c>
       <c r="H3" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="39" t="s">
+      <c r="J3" s="50"/>
+    </row>
+    <row r="4" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="36" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -1934,23 +2279,24 @@
       <c r="I4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="35"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J4" s="50"/>
+      <c r="L4" s="32"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>1</v>
       </c>
       <c r="B5" s="12">
         <v>2</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="28">
         <v>3</v>
       </c>
-      <c r="D5" s="55">
+      <c r="D5" s="71">
         <v>4</v>
       </c>
-      <c r="E5" s="56"/>
-      <c r="F5" s="36">
+      <c r="E5" s="72"/>
+      <c r="F5" s="33">
         <v>5</v>
       </c>
       <c r="G5" s="12">
@@ -1962,42 +2308,44 @@
       <c r="I5" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J5" s="47"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>1</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="35" t="s">
         <v>62</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="71">
         <f>IF((AND(F6)=TRUE),1,0)</f>
         <v>1</v>
       </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="36">
+      <c r="E6" s="72"/>
+      <c r="F6" s="33">
         <v>1</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="74" t="s">
-        <v>88</v>
-      </c>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
-    </row>
-    <row r="7" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="51"/>
+      <c r="K6" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="91"/>
+      <c r="R6" s="91"/>
+      <c r="S6" s="91"/>
+      <c r="T6" s="91"/>
+    </row>
+    <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2</v>
       </c>
@@ -2007,12 +2355,12 @@
       <c r="C7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="71">
         <f>IF((AND(G7,(NOT(H7)),(NOT(I7)))=TRUE),1,0)</f>
         <v>1</v>
       </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="36"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="18">
         <v>1</v>
       </c>
@@ -2022,18 +2370,22 @@
       <c r="I7" s="18">
         <v>0</v>
       </c>
-      <c r="J7" s="74" t="s">
-        <v>89</v>
-      </c>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
-    </row>
-    <row r="8" spans="1:19" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
+      <c r="J7" s="52"/>
+      <c r="K7" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+    </row>
+    <row r="8" spans="1:20" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28">
         <v>3</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -2042,32 +2394,37 @@
       <c r="C8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="71">
         <f>IF((AND(H8,(NOT(G8)),(NOT(I8)))=TRUE),1,0)</f>
         <v>1</v>
       </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="31">
+      <c r="E8" s="72"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="28">
         <v>0</v>
       </c>
-      <c r="H8" s="31">
-        <v>1</v>
-      </c>
-      <c r="I8" s="31">
+      <c r="H8" s="28">
+        <v>1</v>
+      </c>
+      <c r="I8" s="28">
         <v>0</v>
       </c>
-      <c r="J8" s="76" t="s">
-        <v>90</v>
-      </c>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="77"/>
-    </row>
-    <row r="9" spans="1:19" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
+      <c r="J8" s="46"/>
+      <c r="K8" s="92" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="55"/>
+    </row>
+    <row r="9" spans="1:20" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28">
         <v>4</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -2076,12 +2433,12 @@
       <c r="C9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="71">
         <f>IF((AND(I9,(NOT(G9)),(NOT(H9)))=TRUE),1,0)</f>
         <v>1</v>
       </c>
-      <c r="E9" s="56"/>
-      <c r="F9" s="37"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="34"/>
       <c r="G9" s="18">
         <v>0</v>
       </c>
@@ -2091,162 +2448,354 @@
       <c r="I9" s="18">
         <v>1</v>
       </c>
-      <c r="J9" s="78" t="s">
-        <v>92</v>
-      </c>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78"/>
-    </row>
-    <row r="10" spans="1:19" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
+      <c r="J9" s="53"/>
+      <c r="K9" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+    </row>
+    <row r="10" spans="1:20" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28">
         <v>5</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="55">
-        <f>IF((AND(F10)=FALSE),1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="37">
+      <c r="D10" s="71">
+        <f>IF((AND(NOT(F10))=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="72"/>
+      <c r="F10" s="34">
         <v>0</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
-      <c r="J10" s="74" t="s">
-        <v>91</v>
-      </c>
-      <c r="K10" s="73"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:19" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
+      <c r="J10" s="52"/>
+      <c r="K10" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" s="91"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+    </row>
+    <row r="11" spans="1:20" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28">
         <v>6</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="79">
-        <f>IF((AND(G11)=TRUE),1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E11" s="80"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="31">
-        <v>1</v>
-      </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="K11" s="77"/>
-    </row>
-    <row r="12" spans="1:19" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
+      <c r="D11" s="93">
+        <f>IF((AND(F11,G11)=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="94"/>
+      <c r="F11" s="34">
+        <v>1</v>
+      </c>
+      <c r="G11" s="28">
+        <v>1</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="L11" s="92"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="55"/>
+    </row>
+    <row r="12" spans="1:20" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28">
         <v>7</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="81">
-        <f>IF((AND(H12)=TRUE),1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E12" s="82"/>
-      <c r="F12" s="37"/>
+      <c r="D12" s="95">
+        <f>IF((AND(F12,H12)=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="96"/>
+      <c r="F12" s="34">
+        <v>1</v>
+      </c>
       <c r="G12" s="17"/>
       <c r="H12" s="18">
         <v>1</v>
       </c>
       <c r="I12" s="17"/>
-      <c r="J12" s="76" t="s">
-        <v>94</v>
-      </c>
-      <c r="K12" s="77"/>
-    </row>
-    <row r="13" spans="1:19" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31">
+      <c r="J12" s="54"/>
+      <c r="K12" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="L12" s="92"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="55"/>
+    </row>
+    <row r="13" spans="1:20" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28">
         <v>8</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="81">
-        <f>IF((AND(I13)=TRUE),1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E13" s="82"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31">
-        <v>1</v>
-      </c>
-      <c r="J13" s="76" t="s">
-        <v>95</v>
-      </c>
-      <c r="K13" s="77"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="95">
+        <f>IF((AND(F13,I13)=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="96"/>
+      <c r="F13" s="34">
+        <v>1</v>
+      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28">
+        <v>1</v>
+      </c>
+      <c r="J13" s="46"/>
+      <c r="K13" s="92" t="s">
+        <v>101</v>
+      </c>
+      <c r="L13" s="92"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="55"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="57">
+        <v>9</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="97">
+        <f>IF((AND(F14)=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="98"/>
+      <c r="F14" s="59">
+        <v>1</v>
+      </c>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="33"/>
+      <c r="K14" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="28">
+        <v>10</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" s="88">
+        <f>IF((AND(F15,G15)=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="89"/>
+      <c r="F15" s="59">
+        <v>1</v>
+      </c>
+      <c r="G15" s="59">
+        <v>1</v>
+      </c>
+      <c r="H15" s="59"/>
+      <c r="I15" s="33"/>
+      <c r="K15" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="57">
+        <v>11</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="88">
+        <f>IF((AND((NOT(F16)),G16)=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="89"/>
+      <c r="F16" s="59">
+        <v>0</v>
+      </c>
+      <c r="G16" s="59">
+        <v>1</v>
+      </c>
+      <c r="H16" s="59"/>
+      <c r="I16" s="33"/>
+      <c r="K16" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="28">
+        <v>12</v>
+      </c>
+      <c r="B17" s="58" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" s="88">
+        <f>IF((AND(F17,H17)=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E17" s="89"/>
+      <c r="F17" s="59">
+        <v>1</v>
+      </c>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59">
+        <v>1</v>
+      </c>
+      <c r="I17" s="33"/>
+      <c r="K17" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="57">
+        <v>13</v>
+      </c>
+      <c r="B18" s="58" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="88">
+        <f>IF((AND((NOT(F18)),H18)=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E18" s="89"/>
+      <c r="F18" s="59">
+        <v>0</v>
+      </c>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59">
+        <v>1</v>
+      </c>
+      <c r="I18" s="33"/>
+      <c r="K18" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="28">
+        <v>14</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" s="88">
+        <f>IF((AND(F19,I19)=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="89"/>
+      <c r="F19" s="59">
+        <v>1</v>
+      </c>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="33">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="57">
+        <v>15</v>
+      </c>
+      <c r="B20" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="88">
+        <f>IF((AND((NOT(F20)),I20)=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="89"/>
+      <c r="F20" s="59">
+        <v>0</v>
+      </c>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="33">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2256,7 +2805,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2266,7 +2815,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2276,7 +2825,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2286,7 +2835,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2296,7 +2845,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2306,7 +2855,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2316,7 +2865,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2326,7 +2875,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2336,7 +2885,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2346,7 +2895,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2356,7 +2905,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3917,26 +4466,26 @@
       <c r="H187" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="31">
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="E16:M16"/>
-    <mergeCell ref="J6:S6"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="E15:M15"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
+    <mergeCell ref="K6:T6"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="K8:P8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:L10"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:I2"/>
@@ -3944,6 +4493,11 @@
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -3951,14 +4505,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:X36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+      <selection activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3969,17 +4523,17 @@
     <col min="4" max="4" width="37.42578125" style="8" customWidth="1"/>
     <col min="5" max="5" width="21.85546875" style="8" customWidth="1"/>
     <col min="6" max="6" width="6.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="46" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="41" customWidth="1"/>
     <col min="8" max="9" width="3" style="3" customWidth="1"/>
     <col min="10" max="10" width="3.5703125" style="3" customWidth="1"/>
     <col min="11" max="11" width="3.7109375" style="3" customWidth="1"/>
     <col min="12" max="13" width="3.5703125" style="3" customWidth="1"/>
     <col min="14" max="15" width="3.85546875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="4.7109375" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="5.42578125" style="1"/>
+    <col min="16" max="23" width="4.28515625" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="5.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -3988,57 +4542,64 @@
       </c>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-    </row>
-    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+    </row>
+    <row r="2" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="64" t="s">
+      <c r="F2" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="83" t="s">
+      <c r="H2" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="85"/>
-    </row>
-    <row r="3" spans="1:16" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+    </row>
+    <row r="3" spans="1:24" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
       <c r="H3" s="10" t="s">
         <v>63</v>
       </c>
@@ -4052,29 +4613,50 @@
         <v>66</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P3" s="41" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="P3" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q3" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="R3" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="S3" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="T3" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="U3" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="V3" s="65" t="s">
+        <v>146</v>
+      </c>
+      <c r="W3" s="65" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="38" t="s">
         <v>52</v>
       </c>
       <c r="H4" s="10" t="s">
@@ -4104,8 +4686,29 @@
       <c r="P4" s="10" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q4" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="R4" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="S4" s="66" t="s">
+        <v>179</v>
+      </c>
+      <c r="T4" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="U4" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="V4" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="W4" s="66" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -4121,10 +4724,10 @@
       <c r="E5" s="6">
         <v>5</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F5" s="71">
         <v>6</v>
       </c>
-      <c r="G5" s="56"/>
+      <c r="G5" s="72"/>
       <c r="H5" s="12">
         <v>7</v>
       </c>
@@ -4152,8 +4755,29 @@
       <c r="P5" s="12">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q5" s="12">
+        <v>16</v>
+      </c>
+      <c r="R5" s="12">
+        <v>17</v>
+      </c>
+      <c r="S5" s="12">
+        <v>18</v>
+      </c>
+      <c r="T5" s="12">
+        <v>19</v>
+      </c>
+      <c r="U5" s="12">
+        <v>20</v>
+      </c>
+      <c r="V5" s="12">
+        <v>21</v>
+      </c>
+      <c r="W5" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>1</v>
       </c>
@@ -4169,10 +4793,11 @@
       <c r="E6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="86">
-        <v>1</v>
-      </c>
-      <c r="G6" s="87"/>
+      <c r="F6" s="99">
+        <f>IF((AND(H6)=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="100"/>
       <c r="H6" s="16">
         <v>1</v>
       </c>
@@ -4183,9 +4808,19 @@
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="22"/>
-      <c r="P6" s="37"/>
-    </row>
-    <row r="7" spans="1:16" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>2</v>
       </c>
@@ -4201,10 +4836,11 @@
       <c r="E7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="86">
-        <v>1</v>
-      </c>
-      <c r="G7" s="87"/>
+      <c r="F7" s="99">
+        <f>IF((AND(NOT(H7))=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="100"/>
       <c r="H7" s="16">
         <v>0</v>
       </c>
@@ -4215,9 +4851,19 @@
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
       <c r="O7" s="22"/>
-      <c r="P7" s="37"/>
-    </row>
-    <row r="8" spans="1:16" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>3</v>
       </c>
@@ -4233,12 +4879,13 @@
       <c r="E8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="86">
-        <v>1</v>
-      </c>
-      <c r="G8" s="87"/>
+      <c r="F8" s="99">
+        <f>IF((AND(I8)=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="100"/>
       <c r="H8" s="16"/>
-      <c r="I8" s="31">
+      <c r="I8" s="28">
         <v>1</v>
       </c>
       <c r="J8" s="14"/>
@@ -4247,10 +4894,20 @@
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="22"/>
-      <c r="P8" s="37"/>
-    </row>
-    <row r="9" spans="1:16" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29">
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
         <v>4</v>
       </c>
       <c r="B9" s="25" t="s">
@@ -4265,12 +4922,13 @@
       <c r="E9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="86">
-        <v>1</v>
-      </c>
-      <c r="G9" s="87"/>
+      <c r="F9" s="99">
+        <f>IF((AND(NOT(I9))=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="100"/>
       <c r="H9" s="16"/>
-      <c r="I9" s="31">
+      <c r="I9" s="28">
         <v>0</v>
       </c>
       <c r="J9" s="14"/>
@@ -4279,10 +4937,20 @@
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
       <c r="O9" s="22"/>
-      <c r="P9" s="37"/>
-    </row>
-    <row r="10" spans="1:16" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29">
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
         <v>5</v>
       </c>
       <c r="B10" s="25" t="s">
@@ -4297,10 +4965,11 @@
       <c r="E10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="86">
-        <v>1</v>
-      </c>
-      <c r="G10" s="87"/>
+      <c r="F10" s="99">
+        <f>IF((AND(J10)=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="100"/>
       <c r="H10" s="16"/>
       <c r="I10" s="14"/>
       <c r="J10" s="16">
@@ -4311,10 +4980,20 @@
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
       <c r="O10" s="22"/>
-      <c r="P10" s="37"/>
-    </row>
-    <row r="11" spans="1:16" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29">
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
         <v>6</v>
       </c>
       <c r="B11" s="25" t="s">
@@ -4329,10 +5008,11 @@
       <c r="E11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="86">
-        <v>1</v>
-      </c>
-      <c r="G11" s="87"/>
+      <c r="F11" s="99">
+        <f>IF((AND(NOT(J11))=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="100"/>
       <c r="H11" s="16"/>
       <c r="I11" s="14"/>
       <c r="J11" s="16">
@@ -4343,10 +5023,20 @@
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
       <c r="O11" s="22"/>
-      <c r="P11" s="37"/>
-    </row>
-    <row r="12" spans="1:16" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29">
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
         <v>7</v>
       </c>
       <c r="B12" s="25" t="s">
@@ -4361,10 +5051,11 @@
       <c r="E12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="86">
-        <v>1</v>
-      </c>
-      <c r="G12" s="87"/>
+      <c r="F12" s="99">
+        <f>IF((AND(K12)=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="100"/>
       <c r="H12" s="16"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
@@ -4375,10 +5066,20 @@
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
       <c r="O12" s="22"/>
-      <c r="P12" s="37"/>
-    </row>
-    <row r="13" spans="1:16" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29">
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26">
         <v>8</v>
       </c>
       <c r="B13" s="25" t="s">
@@ -4393,10 +5094,11 @@
       <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="86">
-        <v>1</v>
-      </c>
-      <c r="G13" s="87"/>
+      <c r="F13" s="99">
+        <f>IF((AND(NOT(K13))=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="100"/>
       <c r="H13" s="16"/>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
@@ -4407,28 +5109,39 @@
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
       <c r="O13" s="22"/>
-      <c r="P13" s="37"/>
-    </row>
-    <row r="14" spans="1:16" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29">
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26">
         <v>9</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>42</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="86">
-        <v>1</v>
-      </c>
-      <c r="G14" s="87"/>
+      <c r="F14" s="99">
+        <f>IF((AND(L14)=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="100"/>
       <c r="H14" s="16"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -4439,28 +5152,39 @@
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
       <c r="O14" s="22"/>
-      <c r="P14" s="37"/>
-    </row>
-    <row r="15" spans="1:16" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29">
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26">
         <v>10</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>43</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="86">
-        <v>1</v>
-      </c>
-      <c r="G15" s="87"/>
+      <c r="F15" s="99">
+        <f>IF((AND(NOT(L15))=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="100"/>
       <c r="H15" s="16"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
@@ -4471,28 +5195,39 @@
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
       <c r="O15" s="22"/>
-      <c r="P15" s="37"/>
-    </row>
-    <row r="16" spans="1:16" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29">
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26">
         <v>11</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>44</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="86">
-        <v>1</v>
-      </c>
-      <c r="G16" s="87"/>
+      <c r="F16" s="99">
+        <f>IF((AND(M16)=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="100"/>
       <c r="H16" s="16"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -4503,28 +5238,39 @@
       </c>
       <c r="N16" s="14"/>
       <c r="O16" s="22"/>
-      <c r="P16" s="37"/>
-    </row>
-    <row r="17" spans="1:16" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29">
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26">
         <v>12</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>45</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="86">
-        <v>1</v>
-      </c>
-      <c r="G17" s="87"/>
+      <c r="F17" s="99">
+        <f>IF((AND(NOT(M17))=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G17" s="100"/>
       <c r="H17" s="16"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -4535,28 +5281,39 @@
       </c>
       <c r="N17" s="14"/>
       <c r="O17" s="22"/>
-      <c r="P17" s="37"/>
-    </row>
-    <row r="18" spans="1:16" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29">
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
         <v>13</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="86">
-        <v>1</v>
-      </c>
-      <c r="G18" s="87"/>
+      <c r="F18" s="99">
+        <f>IF((AND(N18)=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G18" s="100"/>
       <c r="H18" s="16"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
@@ -4567,28 +5324,39 @@
         <v>1</v>
       </c>
       <c r="O18" s="22"/>
-      <c r="P18" s="37"/>
-    </row>
-    <row r="19" spans="1:16" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29">
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26">
         <v>14</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="86">
-        <v>1</v>
-      </c>
-      <c r="G19" s="87"/>
+      <c r="F19" s="99">
+        <f>IF((AND(NOT(N19))=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G19" s="100"/>
       <c r="H19" s="16"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
@@ -4599,28 +5367,39 @@
         <v>0</v>
       </c>
       <c r="O19" s="22"/>
-      <c r="P19" s="37"/>
-    </row>
-    <row r="20" spans="1:16" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29">
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26">
         <v>15</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="86">
-        <v>1</v>
-      </c>
-      <c r="G20" s="87"/>
+      <c r="F20" s="99">
+        <f>IF((AND(O20)=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G20" s="100"/>
       <c r="H20" s="16"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
@@ -4631,28 +5410,39 @@
       <c r="O20" s="16">
         <v>1</v>
       </c>
-      <c r="P20" s="37"/>
-    </row>
-    <row r="21" spans="1:16" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29">
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="26">
         <v>16</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="86">
-        <v>1</v>
-      </c>
-      <c r="G21" s="87"/>
+      <c r="F21" s="99">
+        <f>IF((AND(NOT(O21))=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G21" s="100"/>
       <c r="H21" s="16"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
@@ -4663,60 +5453,665 @@
       <c r="O21" s="16">
         <v>0</v>
       </c>
-      <c r="P21" s="37"/>
-    </row>
-    <row r="22" spans="1:16" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31">
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="28">
         <v>17</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>73</v>
+        <v>88</v>
+      </c>
+      <c r="C22" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>72</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="86">
-        <v>1</v>
-      </c>
-      <c r="G22" s="87"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
+      <c r="F22" s="99">
+        <f>IF((AND(P22)=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G22" s="100"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="28">
+        <v>18</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="99">
+        <f>IF((AND(Q23)=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G23" s="100"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34">
+        <v>1</v>
+      </c>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="57">
+        <v>19</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="99">
+        <f>IF((AND(NOT(Q24))=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G24" s="100"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33">
+        <v>0</v>
+      </c>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="28">
+        <v>20</v>
+      </c>
+      <c r="B25" s="63" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="F25" s="99">
+        <f>IF((AND(R25)=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G25" s="100"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33">
+        <v>1</v>
+      </c>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="57">
+        <v>21</v>
+      </c>
+      <c r="B26" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="F26" s="99">
+        <f>IF((AND(NOT(R26))=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G26" s="100"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33">
+        <v>0</v>
+      </c>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="28">
+        <v>22</v>
+      </c>
+      <c r="B27" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="F27" s="99">
+        <f>IF((AND(S27)=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G27" s="100"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33">
+        <v>1</v>
+      </c>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="57">
+        <v>23</v>
+      </c>
+      <c r="B28" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="F28" s="99">
+        <f>IF((AND(NOT(S28))=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G28" s="100"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="33">
+        <v>0</v>
+      </c>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="33"/>
+      <c r="X28" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="28">
+        <v>24</v>
+      </c>
+      <c r="B29" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="F29" s="99">
+        <f>IF((AND(T29)=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G29" s="100"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33">
+        <v>1</v>
+      </c>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="33"/>
+      <c r="X29" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="57">
+        <v>25</v>
+      </c>
+      <c r="B30" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="F30" s="99">
+        <f>IF((AND(NOT(T30))=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G30" s="100"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33">
+        <v>0</v>
+      </c>
+      <c r="U30" s="33"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="33"/>
+      <c r="X30" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="28">
+        <v>26</v>
+      </c>
+      <c r="B31" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F31" s="99">
+        <f>IF((AND(U31)=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G31" s="100"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33">
+        <v>1</v>
+      </c>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="57">
+        <v>27</v>
+      </c>
+      <c r="B32" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F32" s="99">
+        <f>IF((AND(NOT(U32))=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G32" s="100"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="33">
+        <v>0</v>
+      </c>
+      <c r="V32" s="33"/>
+      <c r="W32" s="33"/>
+      <c r="X32" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="28">
+        <v>28</v>
+      </c>
+      <c r="B33" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="F33" s="99">
+        <f>IF((AND(V33)=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G33" s="100"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="33">
+        <v>1</v>
+      </c>
+      <c r="W33" s="33"/>
+      <c r="X33" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="57">
+        <v>29</v>
+      </c>
+      <c r="B34" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D34" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="F34" s="99">
+        <f>IF((AND(NOT(V34))=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G34" s="100"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="33"/>
+      <c r="T34" s="33"/>
+      <c r="U34" s="33"/>
+      <c r="V34" s="33">
+        <v>0</v>
+      </c>
+      <c r="W34" s="33"/>
+      <c r="X34" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="28">
+        <v>30</v>
+      </c>
+      <c r="B35" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="F35" s="99">
+        <f>IF((AND(W35)=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G35" s="100"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="33"/>
+      <c r="V35" s="33"/>
+      <c r="W35" s="33">
+        <v>1</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="28">
+        <v>31</v>
+      </c>
+      <c r="B36" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D36" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="F36" s="99">
+        <f>IF((AND(NOT(W36))=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G36" s="100"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="59"/>
+      <c r="M36" s="59"/>
+      <c r="N36" s="59"/>
+      <c r="O36" s="59"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="33"/>
+      <c r="V36" s="33"/>
+      <c r="W36" s="33">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>195</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="F20:G20"/>
+  <mergeCells count="40">
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F15:G15"/>
@@ -4724,24 +6119,39 @@
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F20:G20"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F8:G8"/>
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H2:P2"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H2:W2"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
     <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
